--- a/Schema_Test_Data.xlsx
+++ b/Schema_Test_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wteh/Documents/GitHub_Issues/Estimated_cell_count/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrique/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F845C0-ED25-BF45-B243-E51FFBECA8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BF8731-9593-3C45-B41A-60E1682C5E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="1680" windowWidth="40820" windowHeight="24280" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1029">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -3120,6 +3120,18 @@
   </si>
   <si>
     <t>10x 3' v3</t>
+  </si>
+  <si>
+    <t>OFFICIAL HCA PUBLICATION</t>
+  </si>
+  <si>
+    <t>Has the publication been accepted as an official HCA publication, according to the process described in https://www.humancellatlas.org/publications/ ?</t>
+  </si>
+  <si>
+    <t>Should be one of: yes, or no</t>
+  </si>
+  <si>
+    <t>project.publications.official_hca_publication</t>
   </si>
 </sst>
 </file>
@@ -3802,7 +3814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView topLeftCell="F3" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -6328,10 +6340,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6340,9 +6352,10 @@
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -6358,8 +6371,11 @@
       <c r="E1" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="340" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -6375,8 +6391,11 @@
       <c r="E2" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6411,11 @@
       <c r="E3" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -6409,8 +6431,11 @@
       <c r="E4" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6418,8 +6443,9 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>886</v>
       </c>
@@ -6432,6 +6458,12 @@
       <c r="E6" s="4" t="s">
         <v>965</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Schema_Test_Data.xlsx
+++ b/Schema_Test_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wteh/Documents/GitHub_Issues/Estimated_cell_count/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wteh/Documents/Wrangling/Schema-test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F845C0-ED25-BF45-B243-E51FFBECA8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76E4084-D9A9-D046-A140-C60B16468AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="1680" windowWidth="40820" windowHeight="24280" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="1840" windowWidth="30640" windowHeight="23360" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,17 @@
     <sheet name="Donor organism" sheetId="5" r:id="rId5"/>
     <sheet name="Collection protocol" sheetId="14" r:id="rId6"/>
     <sheet name="Specimen from organism" sheetId="6" r:id="rId7"/>
-    <sheet name="Enrichment protocol" sheetId="17" r:id="rId8"/>
-    <sheet name="Cell suspension" sheetId="7" r:id="rId9"/>
-    <sheet name="Library preparation protocol" sheetId="22" r:id="rId10"/>
-    <sheet name="Sequencing protocol" sheetId="23" r:id="rId11"/>
-    <sheet name="Analysis protocol" sheetId="30" r:id="rId12"/>
-    <sheet name="Analysis file" sheetId="31" r:id="rId13"/>
+    <sheet name="Imaging preparation protocol" sheetId="33" r:id="rId8"/>
+    <sheet name="Imaged specimen" sheetId="32" r:id="rId9"/>
+    <sheet name="Imaging protocol" sheetId="34" r:id="rId10"/>
+    <sheet name="Image file" sheetId="35" r:id="rId11"/>
+    <sheet name="Enrichment protocol" sheetId="17" r:id="rId12"/>
+    <sheet name="Cell suspension" sheetId="7" r:id="rId13"/>
+    <sheet name="Library preparation protocol" sheetId="22" r:id="rId14"/>
+    <sheet name="Sequencing protocol" sheetId="23" r:id="rId15"/>
+    <sheet name="Sequence file" sheetId="36" r:id="rId16"/>
+    <sheet name="Analysis protocol" sheetId="30" r:id="rId17"/>
+    <sheet name="Analysis file" sheetId="31" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1251">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -2629,9 +2634,6 @@
   </si>
   <si>
     <t>AP1CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peripheral whole blood was collected in EDTA tubes and processed fresh via Ficoll-Paque Plus separation (GE healthcare,17144002). The blood was first diluted with 5 ml 2 mM EDTA-PBS (Invitrogen, 1555785-038), before 10-20 ml of diluted blood was carefully layered onto 15 ml of Ficoll in a 50mL falcon tube. If the sample volume was less than 5 ml, blood was diluted with an equal volume of EDTA-PBS and layered onto 3 ml Ficoll. The sample was centrifuged at 800 g for 20 min at room temperature. The plasma layer was carefully removed and the peripheral blood mononuclear cell (PBMC) layer collected using sterile Pasteur pipette. The PBMC layer was washed with 3 volumes of EDTA-PBS by centrifugation at 500 g for 10 min. The pellet was suspended in EDTA-PBS and centrifuged again at 300 g for 5 min. The PBMC pellet was collected and the cell number and viability being assessed using Trypan blue. Cell freezing medium (90% FBS, 10% DMSO) was added dropwise to PBMCs slowly on ice and then the mixture was cryopreserved at -80 ¬∞C until further full sample processing. </t>
   </si>
   <si>
     <t>year</t>
@@ -2687,18 +2689,12 @@
     <t>Newcastle_Enrichment_Size</t>
   </si>
   <si>
-    <t>Newcastle_UCL_Sequencing</t>
-  </si>
-  <si>
     <t>Cambridge_Sequencing</t>
   </si>
   <si>
     <t>Samples were sequenced using a NovaSeq 6000 (Illumina), using S1 flowcells.</t>
   </si>
   <si>
-    <t>All libraries were sequenced using a NovaSeq 6000 (Illumina) to achieve a minimum of 50,000 paired end reads per cell for gene expression and 20,000 paired end reads per cell for cell surface protein, TCR enriched and BCR enriched.</t>
-  </si>
-  <si>
     <t>Newcastle_LibraryPrep</t>
   </si>
   <si>
@@ -2717,9 +2713,6 @@
     <t>cell size selection</t>
   </si>
   <si>
-    <t>Ficoll-Hypaque method</t>
-  </si>
-  <si>
     <t>Cambridge_LibraryPrep</t>
   </si>
   <si>
@@ -2810,27 +2803,18 @@
     <t>Newcastle: Scrublet (v0.2.1) was applied to each sample to generate a doublet score. These formed a bimodal distribution so the tool's automatic threshold was applied.  Cambridge: Non-empty droplets were called within each multiplexed pool of donors using the emptyDrops function implemented in the Bioconductor package DropletUtils, using a UMI threshold of 100 and FDR of 1%. The probability of being a doublet was estimated for each cell per sample (that is one 10x lane) using the "doubletCells" function in scran based on highly variable genes (HVGs). Next, we used "cluster_walktrap" on the SNN-Graph that was computed on HVGs to form highly resolved clusters per sample. Per-sample clusters with either a median doublet score greater than the median + 2.5 x MAD or clusters containing more than the median + 2.5 MAD genotype doublets were tagged as doublets. This was followed by a second round of highly-resolved clustering across the whole data set, in which again cells belonging to clusters with a high proportion (&gt; 60%) of cells previously labelled as doublets were also defined as doublets.  UCL/Sanger: For pooled donor CITE-seq samples, the donor ID of each cell was determined by genotype-based demultiplexing using souporcell version 2. Souporcell analyses were performed with 'skip_remap' enabled and a set of known donor genotypes given under the 'common_variants' parameter. The donor ID of each souporcell genotype cluster was annotated by comparing each souporcell genotype to the set of known genotypes. Droplets that contained more than one genotype according to souporcell were flagged as 'ground-truth' doublets for heterotypic doublet identification. Ground-truth doublets were used by DoubletFinder 2.0.3 to empirically determine an optimal 'pK' value for doublet detection. DoubletFinder analysis was performed on each sample separately using 10 principal components, a 'pN' value of 0.25, and the 'nExp' parameter estimated from the fraction of ground-truth doublets and the number of pooled donors.  Combined raw data from the three centres was filtered to remove those that expressed fewer than 200 genes and &gt;10% mitochondrial reads. Data was normalised (scanpy: normalize_total), log+1 corrected (scanpy: log1p) and highly variable genes identified using the Seurat vst algorithm (scanpy: highly_variable_genes). Harmony was used to adjust principal components by sample ID and used to generate the neighbourhood graph and embedded using UMAP. Clustering was performed using the Leiden algorithm with an initial resolution of 3. For initial clustering, differentially expressed genes were calculated using Wilcoxon rank-sum test.</t>
   </si>
   <si>
-    <t>UCL_LibraryPrep</t>
-  </si>
-  <si>
     <t xml:space="preserve">200,000 cells from each donor were stained with Human TruStain FcX‚Ñ¢ Fc Blocking Reagent (Biolegend 422302) for 10 minutes at room temperature. The cells were then stained with the custom panel Total-seq C (Biolegend 99813) for 30 minutes at 4˚C. Cells were then washed twice with PBS supplemented with 2% (v/v) FCS and 2mM EDTA (Sigma) before resuspending in PBS and counting. 20,000-30,000 cells per sample were loaded onto the 10x Chromium controller using Chromium NextGEM Single Cell V(D)J Reagent kits v1.1 with Feature Barcoding technology for Cell Surface Protein (10x Genomics) according to the manufacturer's protocol. Gene expression, TCR enriched and BCR enriched libraries were prepared for each sample according to the manufacturer's protocol (10x Genomics). Cell surface protein libraries were subjected to double the manufacturer's recommended primer concentration and 8 amplification cycles during the sample index PCR to reduce the likelihood of daisy chains forming. Libraries were pooled per patient using the following ratio 6:2:1:1 for gene expression, cell surface protein, TCR enriched and BCR enriched libraries.  </t>
   </si>
   <si>
     <t xml:space="preserve">Half a million viable cells were resuspended in 25 Œºl of FACS buffer and incubated with 2.5 Œºl of Human TruStain FcX‚Ñ¢ Fc Blocking Reagent (BioLegend 422302) for 10 min at 4oC. The TotalSeq-C‚Ñ¢ antibody cocktail (BioLegend 99813) was centrifuged at 14,000g at 4˚C for 1 min, resuspended in 52ul of FACS buffer, incubated at room temperature for 5 minutes and centrifuged at 14,000g at 4¬∞C for 10 min. 25ul were subsequently added to each sample pool and incubated for 30 min at 4˚C in the dark. Pools were washed 3 times with 27 volumes (1.4 ml) of FACS buffer, followed by centrifugation at 500 g for 5 minutes. The pellet was resuspended in 62.5 µl of 1 x PBS + 0.04 % BSA (Ambion, #AM2616), filtered through a 40 Œºm cell strainer (Flowmi  H13680-0040) and the viability of each sample pool was assessed. 50,000 live cells (up to a maximum of 60,000 total cells) for each pool were processed using Single Cell VDJ 5' version 1.1 (1000020) together with Single Cell 5' Feature Barcode library kit (1000080), Single Cell V(D)J Enrichment Kit, Human B Cells (1000016) and Single Cell V(D)J Enrichment Kit, Human T Cells (1000005) (10x Genomics) according to the manufacturer's protocols. The samples were subjected to 12 cycles of cDNA amplification and 8 cycles for the cell surface protein library construction. Following this, the libraries were processed according to the manufacturer's protocol. Libraries were pooled per sample using a ratio 9:2.4:1:0.6 for gene expression, cell surface, TCR enriched and BCR enriched libraries. </t>
   </si>
   <si>
-    <t xml:space="preserve">Frozen PBMC samples were thawed quickly in a water bath at 37 ¬∞C. Warm RPMI1640 medium (20-30 ml) containing 10% FBS was added slowly to the cells before centrifuging at 300 g for 5 mins, the pellet was then washed with 5 ml RPMI1640-FBS and centrifuged again (300 g for 5 mins). The PBMC pellet was collected and cell number and viability determined using Trypan blue. PBMCs from four different donors were then pooled together at equal numbers (1.25x105 PBMCs from each donor) to make up 5.0x105 cells in total. The remaining cells were used for DNA extraction (Qiagen, 69504). The pooled PBMCs were stained with TotalSeq-C antibodies (Biolegend, 99814) according to manufacturer's instructions. After incubating with 0.5 vial of TotalSeq-C for 30 min at 4 ¬∞C, PBMCs were washed three times by centrifugation at 500 g for 5 min at 4 ¬∞C. PBMCs were counted again and processed immediately for 10x 5' single cell capture (Chromium Next GEM Single Cell V(D)J Reagent Kit v1.1 with Feature Barcoding technology for cell Surface Protein-Rev D protocol). Two lanes of 25,000 cells were loaded per pool on a 10x chip. Gene expression, TCR enriched and BCR enriched libraries were prepared for each sample according to the manufacturer's protocol (10x Genomics). Cell surface protein libraries were subjected to double the manufacturer's recommended primer concentration and 8 amplification cycles during the sample index PCR to reduce the likelihood of daisy chains forming. Libraries were pooled per patient using the following ratio 6:2:1:1 for gene expression, cell surface protein, TCR enriched and BCR enriched libraries.  </t>
-  </si>
-  <si>
     <t>Newcastle 10x Single cell V(D)J</t>
   </si>
   <si>
     <t>Cambridge SingleCell VDJ 5' 1.1</t>
   </si>
   <si>
-    <t>UCL 10x 5' single cell V(D)J 1.1</t>
-  </si>
-  <si>
     <t>polyA RNA</t>
   </si>
   <si>
@@ -2969,9 +2953,6 @@
     <t>UCL_Collection</t>
   </si>
   <si>
-    <t>UCL_Enrichment</t>
-  </si>
-  <si>
     <t>Newcastle_Enrichment_Centrifuge||Newcastle_Enrichment_Size</t>
   </si>
   <si>
@@ -2987,9 +2968,6 @@
     <t>EFO:0009337</t>
   </si>
   <si>
-    <t>EFO:0009110</t>
-  </si>
-  <si>
     <t>Read 1</t>
   </si>
   <si>
@@ -3086,9 +3064,6 @@
     <t>Should be one of: alignment, quantification, peak calling, peak annotation, gene filtering, cell filtering, merging, cell calling, ambient RNA correction, doublet removal, batch correction, depth normalization</t>
   </si>
   <si>
-    <t>Should be one of: CPM (counts per million), TPM (transcripts per kilobase million), RPKM(reads per kilobase of exon per million reads mapped), FPKM (fragments per kilobase of exon per million fragments mapped), DESeq2’s median of ratios, TMM (EdgeR’s trimmed mean of M values), SF (size factor), UQ (Upper quartile), Downsampling, Unknown, other</t>
-  </si>
-  <si>
     <t>alignment</t>
   </si>
   <si>
@@ -3120,15 +3095,730 @@
   </si>
   <si>
     <t>10x 3' v3</t>
+  </si>
+  <si>
+    <t>IMAGED SPECIMEN ID (Required)</t>
+  </si>
+  <si>
+    <t>IMAGED SPECIMEN NAME</t>
+  </si>
+  <si>
+    <t>IMAGED SPECIMEN DESCRIPTION</t>
+  </si>
+  <si>
+    <t>IMAGED SLICE THICKNESS (Required)</t>
+  </si>
+  <si>
+    <t>INTERNAL TISSUE STRUCTURES</t>
+  </si>
+  <si>
+    <t>INTERNAL TISSUE STRUCTURES ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>INTERNAL TISSUE STRUCTURES ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>IMAGING PREPARATION PROTOCOL ID (Required)</t>
+  </si>
+  <si>
+    <t>List of filenames of photographs of specimen.</t>
+  </si>
+  <si>
+    <t>Thickness of the imaged slice in micrometres.</t>
+  </si>
+  <si>
+    <t>Internal (landmark) structures visible in the overview image that are informative about the broader anatomical context/location of the sample.</t>
+  </si>
+  <si>
+    <t>Must be of format JPEG, TIFF, or PNG. For example: my_image_file.jpg; overview_image.tiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 14</t>
+  </si>
+  <si>
+    <t>imaged_specimen.biomaterial_core.biomaterial_id</t>
+  </si>
+  <si>
+    <t>imaged_specimen.biomaterial_core.biomaterial_name</t>
+  </si>
+  <si>
+    <t>imaged_specimen.biomaterial_core.biomaterial_description</t>
+  </si>
+  <si>
+    <t>imaged_specimen.biomaterial_core.ncbi_taxon_id</t>
+  </si>
+  <si>
+    <t>imaged_specimen.biomaterial_core.genotype</t>
+  </si>
+  <si>
+    <t>imaged_specimen.biomaterial_core.supplementary_files</t>
+  </si>
+  <si>
+    <t>imaged_specimen.biomaterial_core.biosamples_accession</t>
+  </si>
+  <si>
+    <t>imaged_specimen.biomaterial_core.insdc_sample_accession</t>
+  </si>
+  <si>
+    <t>imaged_specimen.biomaterial_core.HDBR_accession</t>
+  </si>
+  <si>
+    <t>imaged_specimen.overview_images</t>
+  </si>
+  <si>
+    <t>imaged_specimen.slice_thickness</t>
+  </si>
+  <si>
+    <t>imaged_specimen.internal_anatomical_structures.text</t>
+  </si>
+  <si>
+    <t>imaged_specimen.internal_anatomical_structures.ontology</t>
+  </si>
+  <si>
+    <t>imaged_specimen.internal_anatomical_structures.ontology_label</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.protocol_core.protocol_id</t>
+  </si>
+  <si>
+    <t>HumanVisiumSpatialLibraryPrep</t>
+  </si>
+  <si>
+    <t>IMAGING PREPARATION PROTOCOL NAME</t>
+  </si>
+  <si>
+    <t>IMAGING PREPARATION PROTOCOL DESCRIPTION</t>
+  </si>
+  <si>
+    <t>FRESH SLICING METHOD</t>
+  </si>
+  <si>
+    <t>IMAGED SLICE THICKNESS</t>
+  </si>
+  <si>
+    <t>FINAL SLICING METHOD</t>
+  </si>
+  <si>
+    <t>TIME BETWEEN RESECTION AND FRESH SLICING</t>
+  </si>
+  <si>
+    <t>POST RESECTION INTERVAL TIME UNIT</t>
+  </si>
+  <si>
+    <t>POST RESECTION INTERVAL TIME UNIT ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>POST RESECTION INTERVAL TIME UNIT ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>POST FINAL SLICING INTERVAL</t>
+  </si>
+  <si>
+    <t>POST FINAL SLICING INTERVAL TIME UNIT</t>
+  </si>
+  <si>
+    <t>POST FINAL SLICING INTERVAL TIME UNIT ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>POST FINAL SLICING INTERVAL TIME UNIT ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>FIDUCIAL MARKER</t>
+  </si>
+  <si>
+    <t>EXPANSION FACTOR</t>
+  </si>
+  <si>
+    <t>The method by which fresh tissue was sliced.</t>
+  </si>
+  <si>
+    <t>The method by which the final slice was obtained.</t>
+  </si>
+  <si>
+    <t>Length of time between surgical resection and fresh slicing of tissue.</t>
+  </si>
+  <si>
+    <t>Length of time between secondary slicing and hybridization.</t>
+  </si>
+  <si>
+    <t>Fiducial markers for the alignment of images taken across multiple rounds of imaging.</t>
+  </si>
+  <si>
+    <t>Factor by which the imaged tissue was expanded in one dimension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: vibrotome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: cryosectioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: beads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 3</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.protocol_core.protocol_name</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.protocol_core.protocol_description</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.protocol_core.publication_doi</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.protocol_core.protocols_io_doi</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.protocol_core.document</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.fresh_slicing_method</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.imaged_slice_thickness</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.final_slicing_method</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.post_resection_interval</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.post_resection_interval_unit.text</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.post_resection_interval_unit.ontology</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.post_resection_interval_unit.ontology_label</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.pre_final_slice_preservation_method.storage_method</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.pre_final_slice_preservation_method.storage_time</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.pre_final_slice_preservation_method.storage_time_unit.text</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.pre_final_slice_preservation_method.storage_time_unit.ontology</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.pre_final_slice_preservation_method.storage_time_unit.ontology_label</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.pre_final_slice_preservation_method.preservation_method</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.post_final_slicing_interval</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.post_final_slicing_interval_unit.text</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.post_final_slicing_interval_unit.ontology</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.post_final_slicing_interval_unit.ontology_label</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.fiducial_marker</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.expansion_factor</t>
+  </si>
+  <si>
+    <t>IMAGING PROTOCOL ID (Required)</t>
+  </si>
+  <si>
+    <t>IMAGING PROTOCOL NAME</t>
+  </si>
+  <si>
+    <t>IMAGING PROTOCOL DESCRIPTION</t>
+  </si>
+  <si>
+    <t>MICROSCOPE SETUP DESCRIPTION</t>
+  </si>
+  <si>
+    <t>MICROSCOPY TECHNIQUE (Required)</t>
+  </si>
+  <si>
+    <t>MICROSCOPY TECHNIQUE ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>MICROSCOPY TECHNIQUE ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>MAGNIFICATION (Required)</t>
+  </si>
+  <si>
+    <t>NUMERICAL APERTURE (Required)</t>
+  </si>
+  <si>
+    <t>IMMERSION MEDIUM</t>
+  </si>
+  <si>
+    <t>REFRACTIVE INDEX OF THE IMMERSION MEDIUM</t>
+  </si>
+  <si>
+    <t>PIXEL SIZE (Required)</t>
+  </si>
+  <si>
+    <t>NUMBER OF TILES</t>
+  </si>
+  <si>
+    <t>TILE SIZE Y</t>
+  </si>
+  <si>
+    <t>TILE SIZE X</t>
+  </si>
+  <si>
+    <t>Z STACK STEP SIZE</t>
+  </si>
+  <si>
+    <t>NUMBER OF Z STEPS</t>
+  </si>
+  <si>
+    <t>OVERLAPPING TILES (Required)</t>
+  </si>
+  <si>
+    <t>Description of the microscope setup.</t>
+  </si>
+  <si>
+    <t>A term that may be associated with a microscopy-related ontology term.</t>
+  </si>
+  <si>
+    <t>Magnification of the objective used for imaging.</t>
+  </si>
+  <si>
+    <t>Numerical aperture of the objective.</t>
+  </si>
+  <si>
+    <t>Immersion medium used for imaging.</t>
+  </si>
+  <si>
+    <t>Refractive index of the immersion medium used for imaging.</t>
+  </si>
+  <si>
+    <t>Pixel size in nanometers.</t>
+  </si>
+  <si>
+    <t>Number of XY tiles in the experiment.</t>
+  </si>
+  <si>
+    <t>Y size of the tile in micrometers.</t>
+  </si>
+  <si>
+    <t>X size of the tile in micrometers.</t>
+  </si>
+  <si>
+    <t>Z-stack step size in nanometers.</t>
+  </si>
+  <si>
+    <t>Number of steps in a Z stack.</t>
+  </si>
+  <si>
+    <t>Whether tiles were collected with overlap.</t>
+  </si>
+  <si>
+    <t>Include manufacturer and model information about the stand, camera, and objective. For example: Motorized stage (SCAN IM 112 x 74, Marzhauser), sCMOS camera (Zyla 4.2; Andor), 60x, Plan-Apo, 1.3 NA, silicone oil objective (UPLSAPO60XS2; Olympus).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: confocal microscopy; fluorescence microscopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: FBbi:00000251; FBbi:00000246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 60x; 100x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 1.3; 0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: oil; air</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 1.5; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 40</t>
+  </si>
+  <si>
+    <t>imaging_protocol.protocol_core.protocol_id</t>
+  </si>
+  <si>
+    <t>imaging_protocol.protocol_core.protocol_name</t>
+  </si>
+  <si>
+    <t>imaging_protocol.protocol_core.protocol_description</t>
+  </si>
+  <si>
+    <t>imaging_protocol.protocol_core.publication_doi</t>
+  </si>
+  <si>
+    <t>imaging_protocol.protocol_core.protocols_io_doi</t>
+  </si>
+  <si>
+    <t>imaging_protocol.protocol_core.document</t>
+  </si>
+  <si>
+    <t>imaging_protocol.microscope_setup_description</t>
+  </si>
+  <si>
+    <t>imaging_protocol.microscopy_technique.text</t>
+  </si>
+  <si>
+    <t>imaging_protocol.microscopy_technique.ontology</t>
+  </si>
+  <si>
+    <t>imaging_protocol.microscopy_technique.ontology_label</t>
+  </si>
+  <si>
+    <t>imaging_protocol.magnification</t>
+  </si>
+  <si>
+    <t>imaging_protocol.numerical_aperture</t>
+  </si>
+  <si>
+    <t>imaging_protocol.immersion_medium_type</t>
+  </si>
+  <si>
+    <t>imaging_protocol.immersion_medium_refractive_index</t>
+  </si>
+  <si>
+    <t>imaging_protocol.pixel_size</t>
+  </si>
+  <si>
+    <t>imaging_protocol.number_of_tiles</t>
+  </si>
+  <si>
+    <t>imaging_protocol.tile_size_y</t>
+  </si>
+  <si>
+    <t>imaging_protocol.tile_size_x</t>
+  </si>
+  <si>
+    <t>imaging_protocol.z_stack_step_size</t>
+  </si>
+  <si>
+    <t>imaging_protocol.number_of_z_steps</t>
+  </si>
+  <si>
+    <t>imaging_protocol.overlapping_tiles</t>
+  </si>
+  <si>
+    <t>VisiumImaging</t>
+  </si>
+  <si>
+    <t>VisiumImagingProtocol</t>
+  </si>
+  <si>
+    <t>All images for this process were scanned x40 on Hamamatsu NanoZoomer S60.</t>
+  </si>
+  <si>
+    <t>fluorescence microscopy</t>
+  </si>
+  <si>
+    <t>FBbi:00000246</t>
+  </si>
+  <si>
+    <t>40x</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>CONTENT DESCRIPTION ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>INPUT IMAGED SPECIMEN ID (Required)</t>
+  </si>
+  <si>
+    <t>General description of the contents of the file.</t>
+  </si>
+  <si>
+    <t>The source of the file. This is typically an organisation, repository, person or dedicated process.</t>
+  </si>
+  <si>
+    <t>Should be one of: DCP/2 Analysis, Contributor, ArrayExpress, HCA Release, GEO, SCEA, SCP, DCP/1 Matrix Service, LungMAP, Zenodo, Publication</t>
+  </si>
+  <si>
+    <t>image_file.file_core.file_name</t>
+  </si>
+  <si>
+    <t>image_file.file_core.format</t>
+  </si>
+  <si>
+    <t>image_file.file_core.content_description.text</t>
+  </si>
+  <si>
+    <t>image_file.file_core.content_description.ontology</t>
+  </si>
+  <si>
+    <t>image_file.file_core.content_description.ontology_label</t>
+  </si>
+  <si>
+    <t>image_file.file_core.file_source</t>
+  </si>
+  <si>
+    <t>image_file.file_core.checksum</t>
+  </si>
+  <si>
+    <t>V10U24-112_F78-FTIL-0-FO-4_B1.ndpi</t>
+  </si>
+  <si>
+    <t>ndpi</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>data:2968</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>ArrayExpress</t>
+  </si>
+  <si>
+    <t>visium-v2_coordinates.txt</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>coordinates list</t>
+  </si>
+  <si>
+    <t>data:2012</t>
+  </si>
+  <si>
+    <t>Sequence coordinates</t>
+  </si>
+  <si>
+    <t>Visiumanalysis</t>
+  </si>
+  <si>
+    <t>HumanVisiumLibraryPrep</t>
+  </si>
+  <si>
+    <t>INPUT CELL SUSPENSION ID (Required)</t>
+  </si>
+  <si>
+    <t>READ INDEX (Required)</t>
+  </si>
+  <si>
+    <t>LANE INDEX</t>
+  </si>
+  <si>
+    <t>READ LENGTH</t>
+  </si>
+  <si>
+    <t>INSDC RUN ACCESSION</t>
+  </si>
+  <si>
+    <t>LIBRARY PREPARATION ID</t>
+  </si>
+  <si>
+    <t>The sequencing read this file represents.</t>
+  </si>
+  <si>
+    <t>The lane that this file was sequenced from.</t>
+  </si>
+  <si>
+    <t>The length of a sequenced read in this file, in nucleotides.</t>
+  </si>
+  <si>
+    <t>An International Nucleotide Sequence Database Collaboration (INSDC) run accession.</t>
+  </si>
+  <si>
+    <t>A unique ID for the library preparation.</t>
+  </si>
+  <si>
+    <t>If a sequencing experiment is single-end, enter 'read1'. For example: Should be one of: read1, read2, index1, index2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 51</t>
+  </si>
+  <si>
+    <t>Enter accession if run has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with DRR, SRR, or ERR, respectively. For example: SRR0000000</t>
+  </si>
+  <si>
+    <t>Indicate which samples are from the same library preparation by providing a unique identifier for each library preparation. For example: tech_rep_group_001</t>
+  </si>
+  <si>
+    <t>sequence_file.file_core.file_name</t>
+  </si>
+  <si>
+    <t>sequence_file.file_core.format</t>
+  </si>
+  <si>
+    <t>sequence_file.file_core.content_description.text</t>
+  </si>
+  <si>
+    <t>sequence_file.file_core.content_description.ontology</t>
+  </si>
+  <si>
+    <t>sequence_file.file_core.content_description.ontology_label</t>
+  </si>
+  <si>
+    <t>sequence_file.file_core.checksum</t>
+  </si>
+  <si>
+    <t>sequence_file.read_index</t>
+  </si>
+  <si>
+    <t>sequence_file.lane_index</t>
+  </si>
+  <si>
+    <t>sequence_file.read_length</t>
+  </si>
+  <si>
+    <t>sequence_file.insdc_run_accessions</t>
+  </si>
+  <si>
+    <t>sequence_file.library_prep_id</t>
+  </si>
+  <si>
+    <t>6330STDY9479159_S1_L001_I1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>fastq.gz</t>
+  </si>
+  <si>
+    <t>index1</t>
+  </si>
+  <si>
+    <t>6330STDY9479159_S1_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>read1</t>
+  </si>
+  <si>
+    <t>6330STDY9479159_S1_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>read2</t>
+  </si>
+  <si>
+    <t>AP1_imagedspecimen_process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Visium spatial gene expression protocol from 10X Genomics was performed using Library Preparation slide and following the manufacturer’s protocol.After transcript capture, Visium Library Preparation Protocol from 10x Genomics was performed. </t>
+  </si>
+  <si>
+    <t>OBI:0000869</t>
+  </si>
+  <si>
+    <t>single nucleus</t>
+  </si>
+  <si>
+    <t>Visium Spatial Gene Expression</t>
+  </si>
+  <si>
+    <t>EFO:0010961</t>
+  </si>
+  <si>
+    <t>3 prime end bias</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>SPATIAL BARCODE - BARCODE-CONTAINING READ (Required)</t>
+  </si>
+  <si>
+    <t>SPATIAL BARCODE - BARCODE OFFSET (Required)</t>
+  </si>
+  <si>
+    <t>SPATIAL BARCODE - BARCODE LENGTH (Required)</t>
+  </si>
+  <si>
+    <t>SPATIAL BARCODE - WHITE LIST BARCODE FILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: Should be one of: Read 1, Read 2, Read 3, Read 4, i7 Index, or i5 Index.</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.spatial_barcode.barcode_read</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.spatial_barcode.barcode_offset</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.spatial_barcode.barcode_length</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.spatial_barcode.white_list_file</t>
+  </si>
+  <si>
+    <t>10x Genomics Visium spatial sequencing samples were aligned to the human transcriptome GRCh38-3.0.0 reference (consistently with single-cell RNA-seq samples) using 10x Genomics SpaceRanger v.1.2.1 and exonic reads were used to produce mRNA count matrices for each sample. 10x Genomics SpaceRanger was also used to align paired histology images with mRNA capture spot positions in the Visium slide. The paired image was used to determine the average number of nuclei per Visium location in the tissue and used as a hyperparameter in the spatial mapping of cell type</t>
+  </si>
+  <si>
+    <t>spatial analysis</t>
+  </si>
+  <si>
+    <t>EFO:0030025</t>
+  </si>
+  <si>
+    <t>project.publications.official_hca_publication</t>
+  </si>
+  <si>
+    <t>Should be one of: CPM (counts per million), TPM (transcripts per kilobase million), RPKM(reads per kilobase of exon per million reads mapped), FPKM (fragments per kilobase of exon per million fragments mapped), DESeq2’s median of ratios, TMM (EdgeR's trimmed mean of M values), SF (size factor), UQ (Upper quartile), Downsampling, Unknown, other</t>
+  </si>
+  <si>
+    <t>All tissues were sectioned using the Leica CX3050S cryostat and were cut at 10um. Tissue optimization was performed to obtain permeabilization time for fetal tissue (12 min).</t>
+  </si>
+  <si>
+    <t>AP3</t>
+  </si>
+  <si>
+    <t>Sanger_AP3</t>
+  </si>
+  <si>
+    <t>AP3_specimen</t>
+  </si>
+  <si>
+    <t>AP3_imagedspecimen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3182,6 +3872,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3208,38 +3911,44 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3582,8 +4291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3626,13 +4335,13 @@
         <v>33</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -3664,13 +4373,13 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="119" x14ac:dyDescent="0.2">
@@ -3702,13 +4411,13 @@
         <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3740,13 +4449,13 @@
         <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3779,10 +4488,10 @@
         <v>849</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="L6" s="3">
         <v>10000</v>
@@ -3799,11 +4508,1881 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8C27EC-51A4-4942-B35C-34ABEE9FCE66}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView topLeftCell="I2" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="6" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="44.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="25.6640625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="O6" s="3">
+        <v>230</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DCB551-8A63-7543-A900-33C93CB409D5}">
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="3" customWidth="1"/>
+    <col min="10" max="18" width="25.6640625" style="3" customWidth="1"/>
+    <col min="19" max="20" width="8.83203125" style="3"/>
+    <col min="21" max="21" width="25.6640625" style="3" customWidth="1"/>
+    <col min="22" max="23" width="8.83203125" style="3"/>
+    <col min="24" max="24" width="25.6640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="37.6640625" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="J7" s="13"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="J8" s="13"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" style="6" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="G6" t="s">
+        <v>885</v>
+      </c>
+      <c r="H6" t="s">
+        <v>970</v>
+      </c>
+      <c r="I6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>878</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="G7" t="s">
+        <v>886</v>
+      </c>
+      <c r="H7" t="s">
+        <v>971</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="256" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="G8" t="s">
+        <v>886</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="I9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:BF8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="9" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="22" width="25.6640625" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" customWidth="1"/>
+    <col min="24" max="25" width="25.6640625" customWidth="1"/>
+    <col min="26" max="26" width="28" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="43" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36" customWidth="1"/>
+    <col min="31" max="31" width="49.33203125" customWidth="1"/>
+    <col min="32" max="32" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="25.6640625" customWidth="1"/>
+    <col min="36" max="36" width="27.6640625" customWidth="1"/>
+    <col min="37" max="37" width="26.6640625" customWidth="1"/>
+    <col min="38" max="39" width="0" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="25.6640625" customWidth="1"/>
+    <col min="41" max="41" width="42.6640625" customWidth="1"/>
+    <col min="42" max="42" width="33.6640625" customWidth="1"/>
+    <col min="43" max="51" width="25.6640625" customWidth="1"/>
+    <col min="52" max="53" width="0" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="25.6640625" customWidth="1"/>
+    <col min="55" max="56" width="8.83203125" customWidth="1"/>
+    <col min="57" max="57" width="25.6640625" customWidth="1"/>
+    <col min="58" max="58" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="306" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="136" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+    </row>
+    <row r="6" spans="1:58" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="D6">
+        <v>9606</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>853</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>864</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>853</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>865</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>969</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>865</v>
+      </c>
+      <c r="AF6">
+        <v>20000</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9606</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AF8" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3812,45 +6391,48 @@
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="100" style="6" customWidth="1"/>
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="49.6640625" customWidth="1"/>
-    <col min="8" max="9" width="40.6640625" customWidth="1"/>
-    <col min="10" max="11" width="38.6640625" customWidth="1"/>
-    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="30.6640625" customWidth="1"/>
-    <col min="15" max="15" width="38.6640625" customWidth="1"/>
-    <col min="16" max="16" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="59.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.6640625" customWidth="1"/>
-    <col min="19" max="19" width="41.6640625" customWidth="1"/>
-    <col min="20" max="20" width="39.6640625" customWidth="1"/>
-    <col min="21" max="21" width="43.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="39.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" customWidth="1"/>
+    <col min="12" max="13" width="40.6640625" customWidth="1"/>
+    <col min="14" max="15" width="38.6640625" customWidth="1"/>
+    <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" customWidth="1"/>
+    <col min="19" max="19" width="38.6640625" customWidth="1"/>
+    <col min="20" max="20" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="59.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="38.6640625" customWidth="1"/>
-    <col min="23" max="23" width="32.6640625" customWidth="1"/>
-    <col min="24" max="24" width="41.6640625" customWidth="1"/>
-    <col min="25" max="25" width="44.6640625" customWidth="1"/>
-    <col min="26" max="26" width="42.6640625" customWidth="1"/>
-    <col min="27" max="27" width="46.6640625" customWidth="1"/>
+    <col min="23" max="23" width="41.6640625" customWidth="1"/>
+    <col min="24" max="24" width="39.6640625" customWidth="1"/>
+    <col min="25" max="25" width="43.6640625" customWidth="1"/>
+    <col min="26" max="26" width="38.6640625" customWidth="1"/>
+    <col min="27" max="27" width="32.6640625" customWidth="1"/>
     <col min="28" max="28" width="41.6640625" customWidth="1"/>
-    <col min="29" max="29" width="35.6640625" customWidth="1"/>
-    <col min="30" max="32" width="25.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.6640625" customWidth="1"/>
-    <col min="34" max="34" width="29.6640625" customWidth="1"/>
-    <col min="35" max="35" width="27.6640625" customWidth="1"/>
-    <col min="36" max="36" width="31.6640625" customWidth="1"/>
+    <col min="29" max="29" width="44.6640625" customWidth="1"/>
+    <col min="30" max="30" width="42.6640625" customWidth="1"/>
+    <col min="31" max="31" width="46.6640625" customWidth="1"/>
+    <col min="32" max="32" width="41.6640625" customWidth="1"/>
+    <col min="33" max="33" width="35.6640625" customWidth="1"/>
+    <col min="34" max="36" width="25.6640625" customWidth="1"/>
     <col min="37" max="37" width="26.6640625" customWidth="1"/>
-    <col min="38" max="39" width="25.6640625" customWidth="1"/>
-    <col min="40" max="40" width="48.6640625" customWidth="1"/>
-    <col min="41" max="42" width="39.6640625" customWidth="1"/>
-    <col min="43" max="43" width="37.6640625" customWidth="1"/>
-    <col min="44" max="44" width="32.6640625" customWidth="1"/>
-    <col min="45" max="46" width="0" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="33.6640625" customWidth="1"/>
-    <col min="48" max="49" width="0" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="25.6640625" customWidth="1"/>
-    <col min="51" max="51" width="26.6640625" customWidth="1"/>
+    <col min="38" max="38" width="29.6640625" customWidth="1"/>
+    <col min="39" max="39" width="27.6640625" customWidth="1"/>
+    <col min="40" max="40" width="31.6640625" customWidth="1"/>
+    <col min="41" max="41" width="26.6640625" customWidth="1"/>
+    <col min="42" max="43" width="25.6640625" customWidth="1"/>
+    <col min="44" max="44" width="48.6640625" customWidth="1"/>
+    <col min="45" max="46" width="39.6640625" customWidth="1"/>
+    <col min="47" max="47" width="37.6640625" customWidth="1"/>
+    <col min="48" max="48" width="32.6640625" customWidth="1"/>
+    <col min="49" max="50" width="0" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="33.6640625" customWidth="1"/>
+    <col min="52" max="53" width="0" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="25.6640625" customWidth="1"/>
+    <col min="55" max="55" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>610</v>
       </c>
@@ -3870,142 +6452,154 @@
         <v>627</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" ht="306" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>485</v>
       </c>
@@ -4037,19 +6631,19 @@
         <v>694</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>74</v>
@@ -4058,109 +6652,121 @@
         <v>78</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="204" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>486</v>
       </c>
@@ -4176,7 +6782,7 @@
         <v>629</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>683</v>
+        <v>1236</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>687</v>
@@ -4188,130 +6794,142 @@
         <v>695</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>611</v>
       </c>
@@ -4331,142 +6949,154 @@
         <v>680</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AY4" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="BA4" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="BB4" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="BC4" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4520,95 +7150,95 @@
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
-    </row>
-    <row r="6" spans="1:51" ht="160" x14ac:dyDescent="0.2">
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+    </row>
+    <row r="6" spans="1:55" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B6" t="s">
+        <v>919</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="K6" t="s">
+        <v>972</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="O6" t="s">
+        <v>921</v>
+      </c>
+      <c r="R6" t="s">
+        <v>922</v>
+      </c>
+      <c r="S6" t="s">
+        <v>923</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>924</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>925</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="AR6" t="s">
+        <v>972</v>
+      </c>
+      <c r="AS6">
+        <v>16</v>
+      </c>
+      <c r="AT6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" ht="208" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>887</v>
+      </c>
+      <c r="B7" t="s">
+        <v>920</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="R7" t="s">
         <v>922</v>
       </c>
-      <c r="G6" t="s">
-        <v>981</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>928</v>
-      </c>
-      <c r="N6" t="s">
-        <v>929</v>
-      </c>
-      <c r="O6" t="s">
-        <v>930</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>1023</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>931</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>932</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>981</v>
-      </c>
-      <c r="AO6">
-        <v>16</v>
-      </c>
-      <c r="AP6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" ht="208" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>891</v>
-      </c>
-      <c r="B7" t="s">
-        <v>926</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="S7" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>16</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="N7" t="s">
-        <v>929</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>1023</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="T7" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>1014</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -4617,68 +7247,41 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="3" t="s">
-        <v>931</v>
-      </c>
+      <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="3" t="s">
-        <v>932</v>
-      </c>
+      <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
+      <c r="AH7" s="3" t="s">
+        <v>924</v>
+      </c>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
+      <c r="AJ7" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
-      <c r="AN7" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="AO7" s="3">
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="AS7" s="3">
         <v>16</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AT7" s="3">
         <v>12</v>
       </c>
-      <c r="AQ7" s="3"/>
-    </row>
-    <row r="8" spans="1:51" ht="224" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>921</v>
-      </c>
-      <c r="B8" t="s">
-        <v>927</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>924</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>16</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="N8" t="s">
-        <v>929</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>1023</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="R8" s="3"/>
+      <c r="AU7" s="3"/>
+    </row>
+    <row r="8" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+      <c r="C8" s="8"/>
+      <c r="K8" s="3"/>
+      <c r="O8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="T8" s="12"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -4688,13 +7291,9 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="3" t="s">
-        <v>931</v>
-      </c>
+      <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3" t="s">
-        <v>932</v>
-      </c>
+      <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
@@ -4702,18 +7301,75 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
-      <c r="AN8" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="AO8" s="3">
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+    </row>
+    <row r="9" spans="1:55" s="3" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>16</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="O9" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>16</v>
+      </c>
+      <c r="AT9" s="3">
         <v>12</v>
       </c>
-      <c r="AQ8" s="3"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="BB9" s="3">
+        <v>350</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
     </row>
   </sheetData>
@@ -4721,12 +7377,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4989,77 +7645,44 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>880</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="G6" t="s">
-        <v>933</v>
-      </c>
-      <c r="I6" t="s">
-        <v>934</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="K6" t="s">
-        <v>855</v>
-      </c>
-      <c r="L6" t="s">
-        <v>935</v>
-      </c>
-      <c r="M6" t="s">
-        <v>936</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="O6" t="s">
-        <v>937</v>
-      </c>
-      <c r="P6" t="s">
-        <v>938</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C6" s="8"/>
+      <c r="J6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="K7" t="s">
         <v>855</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="O7" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -5070,570 +7693,411 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2BF418-1498-C048-B1EB-B03432BFC86E}">
-  <dimension ref="A1:O6"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D50D0B-2A93-C549-AC1A-5114198C7371}">
+  <dimension ref="A1:AE434"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="84.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.6640625" style="3" customWidth="1"/>
-    <col min="15" max="16" width="8.83203125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="50" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="3"/>
+    <col min="10" max="14" width="25.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="37.6640625" style="3" customWidth="1"/>
+    <col min="16" max="24" width="25.6640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="26.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="49.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="306" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>1009</v>
+        <v>608</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+        <v>1196</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>604</v>
+      </c>
       <c r="J3" s="2" t="s">
-        <v>1013</v>
+        <v>609</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1201</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>899</v>
+        <v>1206</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>898</v>
+        <v>1207</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>897</v>
+        <v>1028</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>896</v>
+        <v>489</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>895</v>
+        <v>611</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>894</v>
+        <v>613</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>893</v>
+        <v>1208</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>982</v>
+        <v>1209</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>892</v>
+        <v>1210</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1018</v>
+        <v>1211</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1212</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DB2321-F5C7-FB4A-8036-4D3A5B83DD24}">
-  <dimension ref="A1:AA103"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="58.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" style="3" customWidth="1"/>
-    <col min="14" max="18" width="18.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" style="3" customWidth="1"/>
-    <col min="20" max="21" width="8.83203125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.6640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="30.6640625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="43.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="8.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>914</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>912</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5660,25 +8124,982 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>971</v>
+        <v>1217</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1016</v>
+        <v>1218</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="15"/>
+    </row>
+    <row r="363" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D363" s="14"/>
+    </row>
+    <row r="364" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D364" s="14"/>
+    </row>
+    <row r="365" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D365" s="14"/>
+    </row>
+    <row r="366" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D366" s="14"/>
+    </row>
+    <row r="367" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D367" s="14"/>
+    </row>
+    <row r="368" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D368" s="14"/>
+    </row>
+    <row r="369" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D369" s="14"/>
+    </row>
+    <row r="370" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D370" s="14"/>
+    </row>
+    <row r="371" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D371" s="14"/>
+    </row>
+    <row r="372" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D372" s="14"/>
+    </row>
+    <row r="373" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D373" s="14"/>
+    </row>
+    <row r="374" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D374" s="14"/>
+    </row>
+    <row r="375" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D375" s="14"/>
+    </row>
+    <row r="376" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D376" s="14"/>
+    </row>
+    <row r="377" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D377" s="14"/>
+    </row>
+    <row r="378" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D378" s="14"/>
+    </row>
+    <row r="379" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D379" s="14"/>
+    </row>
+    <row r="380" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D380" s="14"/>
+    </row>
+    <row r="381" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D381" s="14"/>
+    </row>
+    <row r="382" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D382" s="14"/>
+    </row>
+    <row r="383" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D383" s="14"/>
+    </row>
+    <row r="384" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D384" s="14"/>
+    </row>
+    <row r="385" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D385" s="14"/>
+    </row>
+    <row r="386" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D386" s="14"/>
+    </row>
+    <row r="387" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D387" s="14"/>
+    </row>
+    <row r="388" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D388" s="14"/>
+    </row>
+    <row r="389" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D389" s="14"/>
+    </row>
+    <row r="408" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D408" s="15"/>
+    </row>
+    <row r="409" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D409" s="15"/>
+    </row>
+    <row r="410" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D410" s="15"/>
+    </row>
+    <row r="411" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D411" s="15"/>
+    </row>
+    <row r="412" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D412" s="15"/>
+    </row>
+    <row r="413" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D413" s="15"/>
+    </row>
+    <row r="414" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D414" s="15"/>
+    </row>
+    <row r="415" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D415" s="15"/>
+    </row>
+    <row r="416" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D416" s="15"/>
+    </row>
+    <row r="417" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D417" s="15"/>
+    </row>
+    <row r="418" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D418" s="15"/>
+    </row>
+    <row r="419" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D419" s="15"/>
+    </row>
+    <row r="420" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D420" s="15"/>
+    </row>
+    <row r="421" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D421" s="15"/>
+    </row>
+    <row r="422" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D422" s="15"/>
+    </row>
+    <row r="423" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D423" s="15"/>
+    </row>
+    <row r="424" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D424" s="15"/>
+    </row>
+    <row r="425" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D425" s="15"/>
+    </row>
+    <row r="426" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D426" s="15"/>
+    </row>
+    <row r="427" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D427" s="15"/>
+    </row>
+    <row r="428" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D428" s="15"/>
+    </row>
+    <row r="429" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D429" s="15"/>
+    </row>
+    <row r="430" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D430" s="15"/>
+    </row>
+    <row r="431" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D431" s="15"/>
+    </row>
+    <row r="432" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D432" s="15"/>
+    </row>
+    <row r="433" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D433" s="15"/>
+    </row>
+    <row r="434" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D434" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2BF418-1498-C048-B1EB-B03432BFC86E}">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="84.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.6640625" style="3" customWidth="1"/>
+    <col min="15" max="16" width="8.83203125" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>1000</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DB2321-F5C7-FB4A-8036-4D3A5B83DD24}">
+  <dimension ref="A1:AB103"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="58.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="58.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="43.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.83203125" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>991</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="H6" s="3">
         <v>2100</v>
@@ -5686,432 +9107,459 @@
       <c r="I6" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>918</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="Q6" s="11"/>
+        <v>914</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>881</v>
+      </c>
       <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="H7" s="3">
         <v>15000</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>918</v>
+        <v>1005</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="Q7" s="11"/>
+        <v>914</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>887</v>
+      </c>
       <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Q9" s="10"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Q10" s="10"/>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Q11" s="10"/>
+      <c r="S10" s="10"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Q12" s="10"/>
+      <c r="S11" s="10"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Q13" s="10"/>
+      <c r="S12" s="10"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Q14" s="10"/>
+      <c r="S13" s="10"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Q15" s="10"/>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Q16" s="10"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R16" s="10"/>
-    </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q17" s="10"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q18" s="10"/>
+      <c r="S17" s="10"/>
+    </row>
+    <row r="18" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q19" s="10"/>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q20" s="10"/>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q21" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q22" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q23" s="10"/>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q24" s="10"/>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q25" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q26" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q27" s="10"/>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q28" s="10"/>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R28" s="10"/>
-    </row>
-    <row r="29" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q29" s="10"/>
+      <c r="S28" s="10"/>
+    </row>
+    <row r="29" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R29" s="10"/>
-    </row>
-    <row r="30" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q30" s="10"/>
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R30" s="10"/>
-    </row>
-    <row r="31" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q31" s="10"/>
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R31" s="10"/>
-    </row>
-    <row r="32" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q32" s="10"/>
+      <c r="S31" s="10"/>
+    </row>
+    <row r="32" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R32" s="10"/>
-    </row>
-    <row r="33" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q33" s="10"/>
+      <c r="S32" s="10"/>
+    </row>
+    <row r="33" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R33" s="10"/>
-    </row>
-    <row r="34" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q34" s="10"/>
+      <c r="S33" s="10"/>
+    </row>
+    <row r="34" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R34" s="10"/>
-    </row>
-    <row r="35" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q35" s="10"/>
+      <c r="S34" s="10"/>
+    </row>
+    <row r="35" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R35" s="10"/>
-    </row>
-    <row r="36" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q36" s="10"/>
+      <c r="S35" s="10"/>
+    </row>
+    <row r="36" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R36" s="10"/>
-    </row>
-    <row r="37" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q37" s="10"/>
+      <c r="S36" s="10"/>
+    </row>
+    <row r="37" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R37" s="10"/>
-    </row>
-    <row r="38" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q38" s="10"/>
+      <c r="S37" s="10"/>
+    </row>
+    <row r="38" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R38" s="10"/>
-    </row>
-    <row r="39" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q39" s="10"/>
+      <c r="S38" s="10"/>
+    </row>
+    <row r="39" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R39" s="10"/>
-    </row>
-    <row r="40" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q40" s="10"/>
+      <c r="S39" s="10"/>
+    </row>
+    <row r="40" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R40" s="10"/>
-    </row>
-    <row r="41" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q41" s="10"/>
+      <c r="S40" s="10"/>
+    </row>
+    <row r="41" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R41" s="10"/>
-    </row>
-    <row r="42" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q42" s="10"/>
+      <c r="S41" s="10"/>
+    </row>
+    <row r="42" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R42" s="10"/>
-    </row>
-    <row r="43" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q43" s="10"/>
+      <c r="S42" s="10"/>
+    </row>
+    <row r="43" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R43" s="10"/>
-    </row>
-    <row r="44" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q44" s="10"/>
+      <c r="S43" s="10"/>
+    </row>
+    <row r="44" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R44" s="10"/>
-    </row>
-    <row r="45" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q45" s="10"/>
+      <c r="S44" s="10"/>
+    </row>
+    <row r="45" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R45" s="10"/>
-    </row>
-    <row r="46" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q46" s="10"/>
+      <c r="S45" s="10"/>
+    </row>
+    <row r="46" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R46" s="10"/>
-    </row>
-    <row r="47" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q47" s="10"/>
+      <c r="S46" s="10"/>
+    </row>
+    <row r="47" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R47" s="10"/>
-    </row>
-    <row r="48" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q48" s="10"/>
+      <c r="S47" s="10"/>
+    </row>
+    <row r="48" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R48" s="10"/>
-    </row>
-    <row r="49" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q49" s="10"/>
+      <c r="S48" s="10"/>
+    </row>
+    <row r="49" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R49" s="10"/>
-    </row>
-    <row r="50" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q50" s="10"/>
+      <c r="S49" s="10"/>
+    </row>
+    <row r="50" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R50" s="10"/>
-    </row>
-    <row r="51" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q51" s="10"/>
+      <c r="S50" s="10"/>
+    </row>
+    <row r="51" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R51" s="10"/>
-    </row>
-    <row r="52" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q52" s="10"/>
+      <c r="S51" s="10"/>
+    </row>
+    <row r="52" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R52" s="10"/>
-    </row>
-    <row r="53" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q53" s="10"/>
+      <c r="S52" s="10"/>
+    </row>
+    <row r="53" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R53" s="10"/>
-    </row>
-    <row r="54" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q54" s="10"/>
+      <c r="S53" s="10"/>
+    </row>
+    <row r="54" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R54" s="10"/>
-    </row>
-    <row r="55" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q55" s="10"/>
+      <c r="S54" s="10"/>
+    </row>
+    <row r="55" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R55" s="10"/>
-    </row>
-    <row r="56" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q56" s="10"/>
+      <c r="S55" s="10"/>
+    </row>
+    <row r="56" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R56" s="10"/>
-    </row>
-    <row r="57" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q57" s="10"/>
+      <c r="S56" s="10"/>
+    </row>
+    <row r="57" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R57" s="10"/>
-    </row>
-    <row r="58" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q58" s="10"/>
+      <c r="S57" s="10"/>
+    </row>
+    <row r="58" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R58" s="10"/>
-    </row>
-    <row r="59" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q59" s="10"/>
+      <c r="S58" s="10"/>
+    </row>
+    <row r="59" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R59" s="10"/>
-    </row>
-    <row r="60" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q60" s="10"/>
+      <c r="S59" s="10"/>
+    </row>
+    <row r="60" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R60" s="10"/>
-    </row>
-    <row r="61" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q61" s="10"/>
+      <c r="S60" s="10"/>
+    </row>
+    <row r="61" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R61" s="10"/>
-    </row>
-    <row r="62" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q62" s="10"/>
+      <c r="S61" s="10"/>
+    </row>
+    <row r="62" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R62" s="10"/>
-    </row>
-    <row r="63" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q63" s="10"/>
+      <c r="S62" s="10"/>
+    </row>
+    <row r="63" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R63" s="10"/>
-    </row>
-    <row r="64" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q64" s="10"/>
+      <c r="S63" s="10"/>
+    </row>
+    <row r="64" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R64" s="10"/>
-    </row>
-    <row r="65" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q65" s="10"/>
+      <c r="S64" s="10"/>
+    </row>
+    <row r="65" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R65" s="10"/>
-    </row>
-    <row r="66" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q66" s="10"/>
+      <c r="S65" s="10"/>
+    </row>
+    <row r="66" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R66" s="10"/>
-    </row>
-    <row r="67" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q67" s="10"/>
+      <c r="S66" s="10"/>
+    </row>
+    <row r="67" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R67" s="10"/>
-    </row>
-    <row r="68" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q68" s="10"/>
+      <c r="S67" s="10"/>
+    </row>
+    <row r="68" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R68" s="10"/>
-    </row>
-    <row r="69" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q69" s="10"/>
+      <c r="S68" s="10"/>
+    </row>
+    <row r="69" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R69" s="10"/>
-    </row>
-    <row r="70" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q70" s="10"/>
+      <c r="S69" s="10"/>
+    </row>
+    <row r="70" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R70" s="10"/>
-    </row>
-    <row r="71" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q71" s="10"/>
+      <c r="S70" s="10"/>
+    </row>
+    <row r="71" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R71" s="10"/>
-    </row>
-    <row r="72" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q72" s="10"/>
+      <c r="S71" s="10"/>
+    </row>
+    <row r="72" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R72" s="10"/>
-    </row>
-    <row r="73" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q73" s="10"/>
+      <c r="S72" s="10"/>
+    </row>
+    <row r="73" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R73" s="10"/>
-    </row>
-    <row r="74" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q74" s="10"/>
+      <c r="S73" s="10"/>
+    </row>
+    <row r="74" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R74" s="10"/>
-    </row>
-    <row r="75" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q75" s="10"/>
+      <c r="S74" s="10"/>
+    </row>
+    <row r="75" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R75" s="10"/>
-    </row>
-    <row r="76" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q76" s="10"/>
+      <c r="S75" s="10"/>
+    </row>
+    <row r="76" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R76" s="10"/>
-    </row>
-    <row r="77" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q77" s="10"/>
+      <c r="S76" s="10"/>
+    </row>
+    <row r="77" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R77" s="10"/>
-    </row>
-    <row r="78" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q78" s="10"/>
+      <c r="S77" s="10"/>
+    </row>
+    <row r="78" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R78" s="10"/>
-    </row>
-    <row r="79" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q79" s="10"/>
+      <c r="S78" s="10"/>
+    </row>
+    <row r="79" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R79" s="10"/>
-    </row>
-    <row r="80" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q80" s="10"/>
+      <c r="S79" s="10"/>
+    </row>
+    <row r="80" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R80" s="10"/>
-    </row>
-    <row r="81" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q81" s="10"/>
+      <c r="S80" s="10"/>
+    </row>
+    <row r="81" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R81" s="10"/>
-    </row>
-    <row r="82" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q82" s="10"/>
+      <c r="S81" s="10"/>
+    </row>
+    <row r="82" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R82" s="10"/>
-    </row>
-    <row r="83" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q83" s="10"/>
+      <c r="S82" s="10"/>
+    </row>
+    <row r="83" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R83" s="10"/>
-    </row>
-    <row r="84" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q84" s="10"/>
+      <c r="S83" s="10"/>
+    </row>
+    <row r="84" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R84" s="10"/>
-    </row>
-    <row r="85" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q85" s="10"/>
+      <c r="S84" s="10"/>
+    </row>
+    <row r="85" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R85" s="10"/>
-    </row>
-    <row r="86" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q86" s="10"/>
+      <c r="S85" s="10"/>
+    </row>
+    <row r="86" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R86" s="10"/>
-    </row>
-    <row r="87" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q87" s="10"/>
+      <c r="S86" s="10"/>
+    </row>
+    <row r="87" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R87" s="10"/>
-    </row>
-    <row r="88" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q88" s="10"/>
+      <c r="S87" s="10"/>
+    </row>
+    <row r="88" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R88" s="10"/>
-    </row>
-    <row r="89" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q89" s="10"/>
+      <c r="S88" s="10"/>
+    </row>
+    <row r="89" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R89" s="10"/>
-    </row>
-    <row r="90" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q90" s="10"/>
+      <c r="S89" s="10"/>
+    </row>
+    <row r="90" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R90" s="10"/>
-    </row>
-    <row r="91" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q91" s="10"/>
+      <c r="S90" s="10"/>
+    </row>
+    <row r="91" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R91" s="10"/>
-    </row>
-    <row r="92" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q92" s="10"/>
+      <c r="S91" s="10"/>
+    </row>
+    <row r="92" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R92" s="10"/>
-    </row>
-    <row r="93" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q93" s="10"/>
+      <c r="S92" s="10"/>
+    </row>
+    <row r="93" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R93" s="10"/>
-    </row>
-    <row r="94" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q94" s="10"/>
+      <c r="S93" s="10"/>
+    </row>
+    <row r="94" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R94" s="10"/>
-    </row>
-    <row r="95" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q95" s="10"/>
+      <c r="S94" s="10"/>
+    </row>
+    <row r="95" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R95" s="10"/>
-    </row>
-    <row r="96" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q96" s="10"/>
+      <c r="S95" s="10"/>
+    </row>
+    <row r="96" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R96" s="10"/>
-    </row>
-    <row r="97" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q97" s="10"/>
+      <c r="S96" s="10"/>
+    </row>
+    <row r="97" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R97" s="10"/>
-    </row>
-    <row r="98" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q98" s="10"/>
+      <c r="S97" s="10"/>
+    </row>
+    <row r="98" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R98" s="10"/>
-    </row>
-    <row r="99" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q99" s="10"/>
+      <c r="S98" s="10"/>
+    </row>
+    <row r="99" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R99" s="10"/>
-    </row>
-    <row r="100" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q100" s="10"/>
+      <c r="S99" s="10"/>
+    </row>
+    <row r="100" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R100" s="10"/>
-    </row>
-    <row r="101" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q101" s="10"/>
+      <c r="S100" s="10"/>
+    </row>
+    <row r="101" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R101" s="10"/>
-    </row>
-    <row r="102" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q102" s="10"/>
+      <c r="S101" s="10"/>
+    </row>
+    <row r="102" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R102" s="10"/>
-    </row>
-    <row r="103" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q103" s="10"/>
+      <c r="S102" s="10"/>
+    </row>
+    <row r="103" spans="18:19" x14ac:dyDescent="0.2">
       <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6122,7 +9570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -6306,16 +9754,16 @@
         <v>850</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="D6" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="H6" t="s">
         <v>855</v>
       </c>
       <c r="I6" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -6328,10 +9776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6340,9 +9788,10 @@
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -6359,7 +9808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -6376,7 +9825,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -6393,7 +9842,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -6409,8 +9858,11 @@
       <c r="E4" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6419,18 +9871,24 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>847</v>
       </c>
       <c r="C6" t="s">
-        <v>966</v>
+        <v>959</v>
+      </c>
+      <c r="D6">
+        <v>33879890</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>965</v>
+        <v>958</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -6508,58 +9966,58 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C6" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="C7" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C8" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="C9" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="C10" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="C11" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C12" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6567,63 +10025,63 @@
         <v>21777</v>
       </c>
       <c r="C13" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="C14" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C15" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="C16" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C17" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="C18" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="C19" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="C20" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -6631,7 +10089,7 @@
         <v>21115</v>
       </c>
       <c r="C21" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -6643,8 +10101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BW28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:BC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7669,7 +11127,7 @@
         <v>851</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D6">
         <v>9606</v>
@@ -7678,7 +11136,7 @@
         <v>853</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R6" t="s">
         <v>853</v>
@@ -7693,13 +11151,13 @@
         <v>56</v>
       </c>
       <c r="V6" t="s">
+        <v>862</v>
+      </c>
+      <c r="W6" t="s">
         <v>863</v>
       </c>
-      <c r="W6" t="s">
-        <v>864</v>
-      </c>
       <c r="X6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Y6" t="s">
         <v>856</v>
@@ -7713,19 +11171,14 @@
       <c r="AB6" t="s">
         <v>858</v>
       </c>
-      <c r="AC6" t="s">
-        <v>976</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>858</v>
-      </c>
+      <c r="AD6" s="3"/>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>852</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D7" s="3">
         <v>9606</v>
@@ -7734,7 +11187,7 @@
         <v>853</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>853</v>
@@ -7749,13 +11202,13 @@
         <v>66</v>
       </c>
       <c r="V7" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>864</v>
-      </c>
       <c r="X7" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>856</v>
@@ -7769,26 +11222,85 @@
       <c r="AB7" t="s">
         <v>858</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D8">
+        <v>9606</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="U8" s="3">
+        <v>66</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
@@ -8257,7 +11769,7 @@
       <c r="BW28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8266,7 +11778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -8489,53 +12001,53 @@
     </row>
     <row r="6" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G6" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="H6" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="256" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>871</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>873</v>
-      </c>
       <c r="G7" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="H7" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G8" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="H8" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -8545,10 +12057,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:BH7"/>
+  <dimension ref="A1:BH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9369,10 +12881,10 @@
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D6">
         <v>9606</v>
@@ -9381,7 +12893,7 @@
         <v>853</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>853</v>
@@ -9399,7 +12911,7 @@
         <v>858</v>
       </c>
       <c r="T6" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>858</v>
@@ -9408,15 +12920,15 @@
         <v>851</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D7" s="3">
         <v>9606</v>
@@ -9425,7 +12937,7 @@
         <v>853</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>853</v>
@@ -9443,7 +12955,7 @@
         <v>858</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>858</v>
@@ -9452,45 +12964,95 @@
         <v>852</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9606</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>966</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CB0DDB-01FD-854F-A27F-AFA5E7D91020}">
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" style="6" customWidth="1"/>
-    <col min="4" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46" style="6" customWidth="1"/>
+    <col min="4" max="9" width="25.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="8.83203125" style="3"/>
+    <col min="14" max="16" width="25.6640625" style="3" customWidth="1"/>
+    <col min="17" max="18" width="8.83203125" style="3"/>
+    <col min="19" max="19" width="25.6640625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="27.6640625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="37.6640625" style="3" customWidth="1"/>
+    <col min="22" max="23" width="8.83203125" style="3"/>
+    <col min="24" max="25" width="25.6640625" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>594</v>
+        <v>1022</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>648</v>
+        <v>1044</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>650</v>
+        <v>1045</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
@@ -9502,25 +13064,64 @@
         <v>627</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>655</v>
+        <v>1046</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>657</v>
+        <v>1047</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>659</v>
+        <v>1048</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>661</v>
+        <v>1049</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>665</v>
+        <v>1050</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>1051</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="306" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>485</v>
       </c>
@@ -9540,25 +13141,64 @@
         <v>628</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>350</v>
+        <v>1059</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="N2" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>486</v>
       </c>
@@ -9574,63 +13214,141 @@
         <v>629</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>351</v>
+        <v>1065</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>354</v>
+        <v>1066</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>351</v>
+        <v>1067</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>663</v>
+        <v>444</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>667</v>
+        <v>192</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>595</v>
+        <v>1042</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>649</v>
+        <v>1071</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>651</v>
+        <v>1072</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>652</v>
+        <v>1073</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>653</v>
+        <v>1074</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>654</v>
+        <v>1075</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>656</v>
+        <v>1076</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>658</v>
+        <v>1077</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>660</v>
+        <v>1078</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>664</v>
+        <v>1079</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>668</v>
+        <v>1080</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1081</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9645,79 +13363,26 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="112" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="B6" s="6"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1043</v>
+      </c>
       <c r="C6" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="G6" t="s">
-        <v>888</v>
-      </c>
-      <c r="H6" t="s">
-        <v>978</v>
-      </c>
-      <c r="I6" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="112" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>879</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="G7" t="s">
-        <v>889</v>
-      </c>
-      <c r="H7" t="s">
-        <v>979</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="256" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="G8" t="s">
-        <v>889</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="208" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="G9" t="s">
-        <v>890</v>
-      </c>
-      <c r="H9" t="s">
-        <v>980</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>890</v>
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -9726,57 +13391,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BF8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB3A245-B994-8A41-A981-DAC8129A1EA8}">
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AO8" sqref="AO8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="9" width="25.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="22" width="25.6640625" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" customWidth="1"/>
-    <col min="24" max="25" width="25.6640625" customWidth="1"/>
-    <col min="26" max="26" width="28" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="43" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36" customWidth="1"/>
-    <col min="31" max="31" width="49.33203125" customWidth="1"/>
-    <col min="32" max="32" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="25.6640625" customWidth="1"/>
-    <col min="36" max="36" width="27.6640625" customWidth="1"/>
-    <col min="37" max="37" width="26.6640625" customWidth="1"/>
-    <col min="38" max="39" width="0" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="25.6640625" customWidth="1"/>
-    <col min="41" max="41" width="42.6640625" customWidth="1"/>
-    <col min="42" max="42" width="33.6640625" customWidth="1"/>
-    <col min="43" max="51" width="25.6640625" customWidth="1"/>
-    <col min="52" max="53" width="0" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="25.6640625" customWidth="1"/>
-    <col min="55" max="56" width="8.83203125" customWidth="1"/>
-    <col min="57" max="57" width="25.6640625" customWidth="1"/>
-    <col min="58" max="58" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="3" customWidth="1"/>
+    <col min="4" max="10" width="25.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="42.6640625" style="3" customWidth="1"/>
+    <col min="17" max="24" width="25.6640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="26.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="49.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="43.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>1015</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>490</v>
+        <v>1016</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>492</v>
+        <v>1017</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>125</v>
@@ -9797,154 +13449,76 @@
         <v>145</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>504</v>
+        <v>1018</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>508</v>
+        <v>1019</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>510</v>
+        <v>1020</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>512</v>
+        <v>1021</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>514</v>
+        <v>593</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>518</v>
+        <v>1022</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>522</v>
+        <v>315</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>526</v>
+        <v>318</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>530</v>
+        <v>321</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>534</v>
+        <v>324</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>538</v>
+        <v>328</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>542</v>
+        <v>332</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>546</v>
+        <v>336</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>550</v>
+        <v>339</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>554</v>
+        <v>343</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>169</v>
+        <v>345</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>176</v>
+        <v>349</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>562</v>
+        <v>353</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>566</v>
+        <v>356</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>569</v>
+        <v>358</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="BF1" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="306" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -9973,13 +13547,13 @@
         <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>501</v>
+        <v>1023</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>505</v>
+        <v>1024</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>281</v>
+        <v>1025</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>74</v>
@@ -9988,139 +13562,61 @@
         <v>78</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>515</v>
+        <v>117</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>523</v>
+        <v>316</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>527</v>
+        <v>319</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>531</v>
+        <v>322</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>535</v>
+        <v>325</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>539</v>
+        <v>329</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>543</v>
+        <v>333</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>547</v>
+        <v>337</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>551</v>
+        <v>340</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>555</v>
+        <v>191</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>558</v>
+        <v>74</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="AE2" s="2" t="s">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="BF2" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -10143,322 +13639,166 @@
         <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>502</v>
+        <v>1026</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>506</v>
+        <v>1027</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>282</v>
+        <v>399</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>285</v>
+        <v>396</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>516</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>532</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>536</v>
+        <v>326</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>540</v>
+        <v>330</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>544</v>
+        <v>334</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>548</v>
+        <v>334</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>552</v>
+        <v>341</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>556</v>
+        <v>192</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>171</v>
+        <v>351</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>564</v>
+        <v>354</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>567</v>
+        <v>351</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>570</v>
+        <v>360</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="BF3" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>489</v>
+        <v>1028</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>491</v>
+        <v>1029</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>493</v>
+        <v>1030</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>494</v>
+        <v>1031</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>495</v>
+        <v>1032</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>496</v>
+        <v>1033</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>497</v>
+        <v>1034</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>498</v>
+        <v>1035</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>499</v>
+        <v>1036</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>503</v>
+        <v>1037</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>507</v>
+        <v>1038</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>509</v>
+        <v>1039</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>511</v>
+        <v>1040</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>513</v>
+        <v>1041</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>517</v>
+        <v>367</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>521</v>
+        <v>1042</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>525</v>
+        <v>317</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>529</v>
+        <v>320</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>533</v>
+        <v>323</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>537</v>
+        <v>327</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>541</v>
+        <v>331</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>545</v>
+        <v>335</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>549</v>
+        <v>338</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>553</v>
+        <v>342</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>557</v>
+        <v>344</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>559</v>
+        <v>346</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>560</v>
+        <v>348</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>561</v>
+        <v>352</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>565</v>
+        <v>355</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>568</v>
+        <v>357</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>571</v>
+        <v>361</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="BA4" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="BB4" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="BF4" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10493,108 +13833,28 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-    </row>
-    <row r="6" spans="1:58" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="D6">
+        <v>1250</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D6" s="3">
         <v>9606</v>
       </c>
-      <c r="Z6" t="s">
-        <v>853</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>865</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>853</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>866</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>977</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>866</v>
-      </c>
-      <c r="AF6">
-        <v>20000</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="AP6" s="6" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D7" s="3">
-        <v>9606</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>20000</v>
-      </c>
-      <c r="AO7" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="AF8" s="7"/>
+      <c r="K6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>1043</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Schema_Test_Data.xlsx
+++ b/Schema_Test_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wteh/Documents/Wrangling/Schema-test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wteh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76E4084-D9A9-D046-A140-C60B16468AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A5C63E-7107-AD43-96C5-A397DE55E333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1840" windowWidth="30640" windowHeight="23360" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="1251">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -6381,7 +6381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -10101,8 +10101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BW28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:BC8"/>
+    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11171,7 +11171,12 @@
       <c r="AB6" t="s">
         <v>858</v>
       </c>
-      <c r="AD6" s="3"/>
+      <c r="AC6" t="s">
+        <v>968</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -11222,8 +11227,12 @@
       <c r="AB7" t="s">
         <v>858</v>
       </c>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
+      <c r="AC7" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -12059,8 +12068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BH8"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
+    <sheetView topLeftCell="AO2" workbookViewId="0">
+      <selection activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13005,7 +13014,7 @@
         <v>858</v>
       </c>
       <c r="AQ8" s="7" t="s">
-        <v>852</v>
+        <v>1247</v>
       </c>
       <c r="AR8" s="3" t="s">
         <v>966</v>
@@ -13394,7 +13403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB3A245-B994-8A41-A981-DAC8129A1EA8}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H2" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>

--- a/Schema_Test_Data.xlsx
+++ b/Schema_Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ami/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6EB9CA-85D2-5E49-89AD-94DB5427F4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1577DD55-A2EA-E844-90AE-00BD96C843BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1288">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -2599,9 +2599,6 @@
   </si>
   <si>
     <t>E-MTAB-10026</t>
-  </si>
-  <si>
-    <t>Muzlifah Hannifa</t>
   </si>
   <si>
     <t>AP1</t>
@@ -3912,6 +3909,12 @@
   </si>
   <si>
     <t xml:space="preserve"> For example: positive regulation of memory T cell differentiation</t>
+  </si>
+  <si>
+    <t>RPMI 1640</t>
+  </si>
+  <si>
+    <t>Muzlifah,,Hannifa</t>
   </si>
 </sst>
 </file>
@@ -4459,13 +4462,13 @@
         <v>33</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>980</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -4497,13 +4500,13 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>982</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="119" x14ac:dyDescent="0.2">
@@ -4535,13 +4538,13 @@
         <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>984</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4573,13 +4576,13 @@
         <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>978</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4612,10 +4615,10 @@
         <v>849</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>985</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>986</v>
       </c>
       <c r="L6" s="3">
         <v>10000</v>
@@ -4660,13 +4663,13 @@
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1096</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1097</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
@@ -4678,49 +4681,49 @@
         <v>627</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="306" customHeight="1" x14ac:dyDescent="0.2">
@@ -4743,10 +4746,10 @@
         <v>628</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1113</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1114</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>74</v>
@@ -4755,37 +4758,37 @@
         <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>1124</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="153" customHeight="1" x14ac:dyDescent="0.2">
@@ -4804,34 +4807,34 @@
         <v>629</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>1133</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>1134</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>673</v>
@@ -4840,10 +4843,10 @@
         <v>673</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>1136</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>67</v>
@@ -4851,67 +4854,67 @@
     </row>
     <row r="4" spans="1:21" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>1156</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4941,25 +4944,25 @@
     </row>
     <row r="6" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>1162</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>1163</v>
       </c>
       <c r="L6" s="3">
         <v>0.75</v>
@@ -4968,7 +4971,7 @@
         <v>230</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -5018,19 +5021,19 @@
         <v>605</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>607</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>315</v>
@@ -5089,7 +5092,7 @@
         <v>601</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -5098,7 +5101,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>608</v>
@@ -5175,7 +5178,7 @@
         <v>604</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>609</v>
@@ -5229,31 +5232,31 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>1176</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>317</v>
@@ -5335,28 +5338,28 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>1182</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
@@ -5380,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4847CC3-C56B-124C-B279-ABC7DE664894}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5400,13 +5403,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
@@ -5418,25 +5421,25 @@
         <v>627</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1272</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1277</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -5459,25 +5462,25 @@
         <v>628</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="19" t="s">
         <v>1283</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>1284</v>
-      </c>
       <c r="L2" s="19" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -5496,66 +5499,66 @@
         <v>629</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>1285</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1286</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1286</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>1269</v>
-      </c>
       <c r="K4" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>1274</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5577,31 +5580,34 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1254</v>
-      </c>
       <c r="G6" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>1262</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1286</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>1280</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
   </sheetData>
@@ -5796,37 +5802,37 @@
     </row>
     <row r="6" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L7">
         <v>30</v>
@@ -5834,20 +5840,20 @@
     </row>
     <row r="8" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -6032,7 +6038,7 @@
         <v>594</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>315</v>
@@ -6555,7 +6561,7 @@
         <v>595</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="AR4" s="3" t="s">
         <v>317</v>
@@ -6673,78 +6679,78 @@
     </row>
     <row r="6" spans="1:59" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D6" s="17">
         <v>9606</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AA6" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="AB6" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC6" s="17" t="s">
         <v>864</v>
       </c>
-      <c r="AB6" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>865</v>
-      </c>
       <c r="AD6" s="17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AE6" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF6" s="17">
         <v>20000</v>
       </c>
       <c r="AO6" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AP6" s="18" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AQ6" s="17" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D7" s="17">
         <v>9606</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AA7" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC7" s="17" t="s">
         <v>864</v>
       </c>
-      <c r="AB7" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="AC7" s="17" t="s">
-        <v>865</v>
-      </c>
       <c r="AD7" s="17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF7" s="17">
         <v>20000</v>
       </c>
       <c r="AO7" s="17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AP7" s="17" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AQ7" s="17" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.2">
@@ -6831,16 +6837,16 @@
         <v>627</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1235</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>681</v>
@@ -7161,7 +7167,7 @@
         <v>629</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>687</v>
@@ -7328,16 +7334,16 @@
         <v>680</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>1239</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>1240</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>684</v>
@@ -7536,16 +7542,16 @@
     </row>
     <row r="6" spans="1:55" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -7554,28 +7560,28 @@
         <v>16</v>
       </c>
       <c r="O6" t="s">
+        <v>920</v>
+      </c>
+      <c r="R6" t="s">
         <v>921</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>922</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AH6" t="s">
         <v>923</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>1013</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AJ6" t="s">
         <v>924</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>925</v>
-      </c>
       <c r="AR6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AS6">
         <v>16</v>
@@ -7586,16 +7592,16 @@
     </row>
     <row r="7" spans="1:55" ht="208" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -7604,19 +7610,19 @@
         <v>16</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="R7" t="s">
         <v>921</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>923</v>
-      </c>
       <c r="T7" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>1013</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>1014</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -7631,11 +7637,11 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
@@ -7645,7 +7651,7 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AS7" s="3">
         <v>16</v>
@@ -7691,13 +7697,13 @@
     </row>
     <row r="9" spans="1:55" s="3" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -7706,34 +7712,34 @@
         <v>16</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="P9" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AH9" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="AJ9" s="3" t="s">
-        <v>1231</v>
-      </c>
       <c r="AR9" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AS9" s="3">
         <v>16</v>
@@ -8031,37 +8037,37 @@
     </row>
     <row r="7" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>878</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>880</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="K7" t="s">
+        <v>854</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="K7" t="s">
-        <v>855</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="O7" t="s">
         <v>929</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" s="3" t="s">
         <v>930</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>931</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -8111,10 +8117,10 @@
         <v>600</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>610</v>
@@ -8129,28 +8135,28 @@
         <v>605</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>607</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1193</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1194</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>362</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>315</v>
@@ -8218,7 +8224,7 @@
         <v>485</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>74</v>
@@ -8230,22 +8236,22 @@
         <v>608</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>1198</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>1199</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>363</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>316</v>
@@ -8321,22 +8327,22 @@
         <v>609</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>1203</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>1204</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>364</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -8380,13 +8386,13 @@
     </row>
     <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1207</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>489</v>
@@ -8398,34 +8404,34 @@
         <v>613</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>1214</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>1215</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>365</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>317</v>
@@ -8510,71 +8516,71 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>1219</v>
-      </c>
       <c r="Q6" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>1221</v>
-      </c>
       <c r="Q7" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>1223</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="30" spans="4:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8862,13 +8868,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>92</v>
@@ -8877,22 +8883,22 @@
         <v>623</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -8920,10 +8926,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -8947,10 +8953,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -8959,37 +8965,37 @@
     </row>
     <row r="4" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9013,48 +9019,48 @@
     </row>
     <row r="6" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>916</v>
-      </c>
       <c r="F6" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>975</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>1243</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
   </sheetData>
@@ -9111,7 +9117,7 @@
         <v>600</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>603</v>
@@ -9120,22 +9126,22 @@
         <v>605</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>607</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>610</v>
@@ -9156,7 +9162,7 @@
         <v>328</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>336</v>
@@ -9171,16 +9177,16 @@
         <v>345</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>353</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>358</v>
@@ -9197,10 +9203,10 @@
         <v>601</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>74</v>
@@ -9212,7 +9218,7 @@
         <v>608</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
@@ -9281,7 +9287,7 @@
         <v>602</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -9294,7 +9300,7 @@
         <v>609</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -9345,37 +9351,37 @@
     </row>
     <row r="4" spans="1:28" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>489</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>611</v>
@@ -9463,99 +9469,99 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H6" s="3">
         <v>2100</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H7" s="3">
         <v>15000</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="J8" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>1188</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>1189</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
@@ -9949,8 +9955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10130,19 +10136,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>850</v>
+        <v>1287</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D6" t="s">
+        <v>954</v>
+      </c>
+      <c r="H6" t="s">
+        <v>854</v>
+      </c>
+      <c r="I6" t="s">
         <v>955</v>
-      </c>
-      <c r="H6" t="s">
-        <v>855</v>
-      </c>
-      <c r="I6" t="s">
-        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -10238,7 +10244,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10252,22 +10258,22 @@
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>847</v>
       </c>
       <c r="C6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D6">
         <v>33879890</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -10345,58 +10351,58 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>932</v>
+      </c>
+      <c r="C6" t="s">
         <v>933</v>
-      </c>
-      <c r="C6" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C10" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C12" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -10404,63 +10410,63 @@
         <v>21777</v>
       </c>
       <c r="C13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C14" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C20" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -10468,7 +10474,7 @@
         <v>21115</v>
       </c>
       <c r="C21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
   </sheetData>
@@ -11503,164 +11509,164 @@
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="P6" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="R6" t="s">
+        <v>852</v>
+      </c>
+      <c r="S6" t="s">
         <v>853</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="R6" t="s">
-        <v>853</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>854</v>
-      </c>
-      <c r="T6" t="s">
-        <v>855</v>
       </c>
       <c r="U6">
         <v>56</v>
       </c>
       <c r="V6" t="s">
+        <v>861</v>
+      </c>
+      <c r="W6" t="s">
         <v>862</v>
       </c>
-      <c r="W6" t="s">
-        <v>863</v>
-      </c>
       <c r="X6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Y6" t="s">
+        <v>855</v>
+      </c>
+      <c r="Z6" t="s">
         <v>856</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AB6" t="s">
         <v>857</v>
       </c>
-      <c r="AA6" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>858</v>
-      </c>
       <c r="AC6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D7" s="3">
         <v>9606</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>854</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>855</v>
       </c>
       <c r="U7">
         <v>66</v>
       </c>
       <c r="V7" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>863</v>
-      </c>
       <c r="X7" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Y7" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AB7" t="s">
         <v>857</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>858</v>
-      </c>
       <c r="AC7" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>1247</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>1248</v>
       </c>
       <c r="D8">
         <v>9606</v>
       </c>
       <c r="P8" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>854</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>855</v>
       </c>
       <c r="U8" s="3">
         <v>66</v>
       </c>
       <c r="V8" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>863</v>
-      </c>
       <c r="X8" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Y8" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="Z8" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>857</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>858</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -12389,53 +12395,53 @@
     </row>
     <row r="6" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G6" t="s">
+        <v>959</v>
+      </c>
+      <c r="H6" t="s">
         <v>960</v>
       </c>
-      <c r="H6" t="s">
-        <v>961</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="256" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>870</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>872</v>
-      </c>
       <c r="G7" t="s">
+        <v>959</v>
+      </c>
+      <c r="H7" t="s">
         <v>960</v>
       </c>
-      <c r="H7" t="s">
-        <v>961</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G8" t="s">
+        <v>959</v>
+      </c>
+      <c r="H8" t="s">
         <v>960</v>
       </c>
-      <c r="H8" t="s">
-        <v>961</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
   </sheetData>
@@ -13269,134 +13275,134 @@
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="M6" t="s">
+        <v>858</v>
+      </c>
+      <c r="N6" t="s">
         <v>859</v>
       </c>
-      <c r="N6" t="s">
-        <v>860</v>
-      </c>
       <c r="O6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="T6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AQ6" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D7" s="3">
         <v>9606</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>860</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AQ7" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D8" s="3">
         <v>9606</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>860</v>
-      </c>
       <c r="O8" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AQ8" s="7" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -13434,13 +13440,13 @@
   <sheetData>
     <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1044</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1045</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
@@ -13452,25 +13458,25 @@
         <v>627</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1052</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>438</v>
@@ -13491,22 +13497,22 @@
         <v>452</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="306" customHeight="1" x14ac:dyDescent="0.2">
@@ -13529,16 +13535,16 @@
         <v>628</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1061</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>191</v>
@@ -13568,7 +13574,7 @@
         <v>453</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>191</v>
@@ -13580,10 +13586,10 @@
         <v>78</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -13602,13 +13608,13 @@
         <v>629</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>1066</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1067</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>444</v>
@@ -13641,7 +13647,7 @@
         <v>454</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>192</v>
@@ -13653,87 +13659,87 @@
         <v>192</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>1069</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>1071</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>1093</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13767,10 +13773,10 @@
     </row>
     <row r="6" spans="1:25" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
@@ -13810,13 +13816,13 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1017</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>125</v>
@@ -13840,22 +13846,22 @@
         <v>414</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1021</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>593</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>315</v>
@@ -13935,13 +13941,13 @@
         <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1025</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>74</v>
@@ -14027,10 +14033,10 @@
         <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1027</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>399</v>
@@ -14090,52 +14096,52 @@
     </row>
     <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>1040</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>1041</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>367</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>317</v>
@@ -14224,10 +14230,10 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D6" s="3">
         <v>9606</v>
@@ -14236,10 +14242,10 @@
         <v>10</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
   </sheetData>

--- a/Schema_Test_Data.xlsx
+++ b/Schema_Test_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ami/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrique/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E9E405-DF23-3145-83A2-6EA117DDA0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA11C22-3C69-7047-B007-8DAA57F18065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1294">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -3930,6 +3930,9 @@
   </si>
   <si>
     <t>RPMI 1640</t>
+  </si>
+  <si>
+    <t>AP2CS_pre</t>
   </si>
 </sst>
 </file>
@@ -4050,7 +4053,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4058,7 +4061,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4066,11 +4068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4428,7 +4426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -4437,22 +4435,22 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="102.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="102.1640625" style="5" customWidth="1"/>
     <col min="4" max="9" width="25.6640625" customWidth="1"/>
     <col min="10" max="10" width="33.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4473,13 +4471,13 @@
       <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -4560,40 +4558,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>976</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>977</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1011</v>
       </c>
     </row>
@@ -4601,8 +4599,8 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4617,28 +4615,24 @@
       <c r="A6" t="s">
         <v>846</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>848</v>
       </c>
       <c r="G6" t="s">
         <v>849</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>984</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>985</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4656,21 +4650,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="6" customWidth="1"/>
-    <col min="4" max="6" width="25.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="29.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="44.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="25.6640625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="28.6640625" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="25.6640625" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,7 +4673,7 @@
       <c r="B1" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1096</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4865,67 +4858,67 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1136</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1137</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1139</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1140</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1141</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1142</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1143</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1144</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1145</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1146</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1147</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1148</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>1149</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>1150</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>1151</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>1152</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>1153</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>1154</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>1155</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -4934,7 +4927,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4955,34 +4948,34 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>1157</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>1158</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>1159</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>1160</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>1161</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>1160</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>1162</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>0.75</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <v>230</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" t="s">
         <v>1163</v>
       </c>
     </row>
@@ -5001,22 +4994,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="3" customWidth="1"/>
-    <col min="10" max="18" width="25.6640625" style="3" customWidth="1"/>
-    <col min="19" max="20" width="8.83203125" style="3"/>
-    <col min="21" max="21" width="25.6640625" style="3" customWidth="1"/>
-    <col min="22" max="23" width="8.83203125" style="3"/>
-    <col min="24" max="24" width="25.6640625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="37.6640625" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="18" width="25.6640625" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" customWidth="1"/>
+    <col min="24" max="24" width="25.6640625" customWidth="1"/>
+    <col min="25" max="25" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5035,7 +5025,7 @@
       <c r="E1" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>986</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -5243,79 +5233,79 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1169</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1170</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1171</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1172</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1173</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1174</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1175</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1027</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1136</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>317</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>320</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>323</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>327</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>331</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>335</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>338</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>342</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>344</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>346</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>348</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>352</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>357</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>361</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>365</v>
       </c>
     </row>
@@ -5349,42 +5339,42 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>1176</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>1177</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>1178</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>1179</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>1180</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>1181</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>1249</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>1157</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="J7" s="13"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="J8" s="13"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5395,21 +5385,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CE9285-FB6A-9E4B-89D9-B03832B4BC51}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="25.6640625" style="3" customWidth="1"/>
-    <col min="7" max="10" width="33.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="38" style="3" customWidth="1"/>
-    <col min="13" max="13" width="43" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="10" width="33.6640625" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" customWidth="1"/>
+    <col min="12" max="12" width="38" customWidth="1"/>
+    <col min="13" max="13" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5484,13 +5473,13 @@
       <c r="J2" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="15" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -5532,43 +5521,43 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1256</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1267</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1268</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1269</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1270</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1271</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1272</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1273</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1274</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1275</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1276</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1277</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -5590,34 +5579,34 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>1257</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>1279</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>1280</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>1281</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>1282</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>1281</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>1292</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>1283</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>1284</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -5638,7 +5627,7 @@
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" style="5" customWidth="1"/>
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
@@ -5654,7 +5643,7 @@
       <c r="B1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>650</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5758,40 +5747,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>649</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>652</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>653</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>654</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>656</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>658</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>660</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>664</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>668</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>672</v>
       </c>
     </row>
@@ -5800,7 +5789,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5812,11 +5801,11 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="112" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>874</v>
       </c>
       <c r="G6" t="s">
@@ -5833,7 +5822,7 @@
       <c r="A7" t="s">
         <v>877</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>875</v>
       </c>
       <c r="G7" t="s">
@@ -5842,7 +5831,7 @@
       <c r="H7" t="s">
         <v>970</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>885</v>
       </c>
       <c r="L7">
@@ -5850,27 +5839,26 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="256" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>881</v>
       </c>
       <c r="G8" t="s">
         <v>885</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>970</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5879,10 +5867,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BH8"/>
+  <dimension ref="A1:BH9"/>
   <sheetViews>
-    <sheetView topLeftCell="AN2" workbookViewId="0">
-      <selection activeCell="AR6" sqref="AR6"/>
+    <sheetView tabSelected="1" topLeftCell="AH3" workbookViewId="0">
+      <selection activeCell="AP10" sqref="AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5910,10 +5898,8 @@
     <col min="37" max="37" width="26.6640625" customWidth="1"/>
     <col min="38" max="39" width="0" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="25.6640625" customWidth="1"/>
-    <col min="41" max="41" width="42.6640625" customWidth="1"/>
-    <col min="42" max="42" width="42.6640625" style="3" customWidth="1"/>
-    <col min="43" max="43" width="33.6640625" customWidth="1"/>
-    <col min="44" max="44" width="33.6640625" style="3" customWidth="1"/>
+    <col min="41" max="42" width="42.6640625" customWidth="1"/>
+    <col min="43" max="44" width="33.6640625" customWidth="1"/>
     <col min="45" max="53" width="25.6640625" customWidth="1"/>
     <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="25.6640625" customWidth="1"/>
@@ -6453,184 +6439,184 @@
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>489</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>491</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>493</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>494</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>495</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>496</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>497</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>498</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>499</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>503</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>507</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>509</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>511</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>513</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>517</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>521</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>525</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>529</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>533</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>537</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>541</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>545</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>549</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>553</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>557</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>559</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>560</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>561</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>565</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>568</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>571</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>575</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" t="s">
         <v>579</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" t="s">
         <v>583</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" t="s">
         <v>587</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" t="s">
         <v>588</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>589</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" t="s">
         <v>590</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" t="s">
         <v>591</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" t="s">
         <v>592</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" t="s">
         <v>367</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" t="s">
         <v>489</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>595</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" t="s">
         <v>1256</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" t="s">
         <v>317</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>320</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" t="s">
         <v>323</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" t="s">
         <v>327</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" t="s">
         <v>331</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" t="s">
         <v>335</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" t="s">
         <v>338</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" t="s">
         <v>342</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" t="s">
         <v>344</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" t="s">
         <v>346</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" t="s">
         <v>348</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" t="s">
         <v>352</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" t="s">
         <v>355</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" t="s">
         <v>357</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BG4" t="s">
         <v>361</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6701,7 +6687,7 @@
       <c r="BH5" s="1"/>
     </row>
     <row r="6" spans="1:60" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>860</v>
       </c>
       <c r="D6">
@@ -6728,87 +6714,117 @@
       <c r="AF6">
         <v>20000</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AO6" t="s">
         <v>867</v>
       </c>
-      <c r="AQ6" s="6" t="s">
+      <c r="AQ6" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="AR6" s="17" t="s">
+      <c r="AR6" s="14" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D7">
+        <v>9606</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>852</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>863</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>864</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>968</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>864</v>
+      </c>
+      <c r="AF7">
+        <v>40000</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>868</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>883</v>
+      </c>
+      <c r="AR7" s="14"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>1004</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8">
         <v>9606</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z8" t="s">
         <v>852</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AA8" t="s">
         <v>863</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AB8" t="s">
         <v>852</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AC8" t="s">
         <v>864</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AD8" t="s">
         <v>968</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AE8" t="s">
         <v>864</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AF8">
         <v>20000</v>
       </c>
-      <c r="AO7" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="AR7" s="17" t="s">
+      <c r="AP8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AR8" s="14" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>1250</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9">
         <v>9606</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="Z9" t="s">
         <v>852</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AA9" t="s">
         <v>863</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AB9" t="s">
         <v>852</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AC9" t="s">
         <v>864</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AD9" t="s">
         <v>968</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AE9" t="s">
         <v>864</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF9">
         <v>20000</v>
       </c>
-      <c r="AP8" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>883</v>
+      <c r="AP9" t="s">
+        <v>1293</v>
       </c>
     </row>
   </sheetData>
@@ -6829,11 +6845,11 @@
   <cols>
     <col min="1" max="1" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="100" style="6" customWidth="1"/>
+    <col min="3" max="3" width="100" style="5" customWidth="1"/>
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="39.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="8" max="9" width="39.6640625" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
     <col min="11" max="11" width="49.6640625" customWidth="1"/>
     <col min="12" max="13" width="40.6640625" customWidth="1"/>
     <col min="14" max="15" width="38.6640625" customWidth="1"/>
@@ -6879,7 +6895,7 @@
       <c r="B1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>676</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -7370,169 +7386,169 @@
       </c>
     </row>
     <row r="4" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>611</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>675</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>678</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>679</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>680</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1236</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1237</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1238</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1239</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>684</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>688</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>692</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>696</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>700</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>703</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>706</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>710</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>713</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>716</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>718</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>720</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>722</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>724</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>726</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>728</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>730</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>732</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>734</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>736</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>738</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>740</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" t="s">
         <v>742</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" t="s">
         <v>746</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" t="s">
         <v>750</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" t="s">
         <v>754</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>756</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" t="s">
         <v>758</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" t="s">
         <v>760</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" t="s">
         <v>762</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" t="s">
         <v>764</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" t="s">
         <v>766</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>769</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" t="s">
         <v>771</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" t="s">
         <v>773</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>775</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" t="s">
         <v>777</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" t="s">
         <v>780</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" t="s">
         <v>783</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" t="s">
         <v>785</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" t="s">
         <v>787</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" t="s">
         <v>789</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" t="s">
         <v>791</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" t="s">
         <v>795</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" t="s">
         <v>799</v>
       </c>
     </row>
@@ -7541,7 +7557,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7602,7 +7618,7 @@
       <c r="B6" t="s">
         <v>918</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>916</v>
       </c>
       <c r="K6" t="s">
@@ -7623,10 +7639,10 @@
       <c r="S6" t="s">
         <v>922</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" t="s">
         <v>1013</v>
       </c>
       <c r="AH6" t="s">
@@ -7652,10 +7668,10 @@
       <c r="B7" t="s">
         <v>919</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>971</v>
       </c>
       <c r="L7">
@@ -7664,153 +7680,102 @@
       <c r="M7">
         <v>16</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" t="s">
         <v>920</v>
       </c>
       <c r="R7" t="s">
         <v>921</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" t="s">
         <v>922</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" t="s">
         <v>1013</v>
       </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3" t="s">
+      <c r="AH7" t="s">
         <v>923</v>
       </c>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3" t="s">
+      <c r="AJ7" t="s">
         <v>924</v>
       </c>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3" t="s">
+      <c r="AR7" t="s">
         <v>971</v>
       </c>
-      <c r="AS7" s="3">
+      <c r="AS7">
         <v>16</v>
       </c>
-      <c r="AT7" s="3">
+      <c r="AT7">
         <v>12</v>
       </c>
-      <c r="AU7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="C8" s="8"/>
-      <c r="K8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-    </row>
-    <row r="9" spans="1:55" s="3" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="6"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:55" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>1188</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>971</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>16</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" t="s">
         <v>920</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" t="s">
         <v>1225</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" t="s">
         <v>920</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" t="s">
         <v>1226</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" t="s">
         <v>1227</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" t="s">
         <v>1228</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" t="s">
         <v>1227</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AH9" t="s">
         <v>1229</v>
       </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="AJ9" t="s">
         <v>1230</v>
       </c>
-      <c r="AR9" s="3" t="s">
+      <c r="AR9" t="s">
         <v>971</v>
       </c>
-      <c r="AS9" s="3">
+      <c r="AS9">
         <v>16</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AT9">
         <v>12</v>
       </c>
-      <c r="BB9" s="3">
+      <c r="BB9">
         <v>350</v>
       </c>
-      <c r="BC9" s="3">
+      <c r="BC9">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8008,58 +7973,58 @@
       </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>613</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>801</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>803</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>804</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>805</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>806</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>810</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>813</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>815</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>819</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>823</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>826</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>829</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>831</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>835</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>839</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>842</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>845</v>
       </c>
     </row>
@@ -8089,34 +8054,34 @@
       <c r="A6" t="s">
         <v>878</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>925</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>926</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>925</v>
       </c>
       <c r="K6" t="s">
         <v>854</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>927</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" t="s">
         <v>928</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" t="s">
         <v>927</v>
       </c>
       <c r="O6" t="s">
         <v>929</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" t="s">
         <v>930</v>
       </c>
       <c r="Q6">
@@ -8132,31 +8097,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D50D0B-2A93-C549-AC1A-5114198C7371}">
   <dimension ref="A1:AF434"/>
   <sheetViews>
-    <sheetView topLeftCell="L2" workbookViewId="0">
+    <sheetView topLeftCell="J2" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="51" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="3"/>
-    <col min="11" max="15" width="25.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="37.6640625" style="3" customWidth="1"/>
-    <col min="17" max="25" width="25.6640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="26.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="49.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="41.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="11" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="37.6640625" customWidth="1"/>
+    <col min="17" max="25" width="25.6640625" customWidth="1"/>
+    <col min="26" max="26" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8442,100 +8405,100 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1205</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1206</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1027</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>489</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>489</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>611</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>613</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1207</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1208</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1209</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1210</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1211</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1212</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>1213</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>1214</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>365</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>1215</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>317</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>320</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>323</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>327</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>331</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>335</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>338</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>342</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>344</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>346</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>348</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>352</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>355</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>357</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>361</v>
       </c>
     </row>
@@ -8576,371 +8539,371 @@
       <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>1216</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>1217</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>1249</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>1188</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>878</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>1218</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>1219</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>1217</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>1249</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>1188</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>878</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s">
         <v>1220</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>1221</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>1217</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>1249</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>1188</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>878</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" t="s">
         <v>1222</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>1252</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>1217</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>1250</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>886</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>878</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" t="s">
         <v>1220</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>1253</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>1217</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>1250</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>886</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>878</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" t="s">
         <v>1222</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="30" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="14"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="14"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="14"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="14"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="14"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="14"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="14"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E37" s="14"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="14"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="14"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="14"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="14"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E42" s="14"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="14"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E44" s="14"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="15"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="15"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E47" s="15"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E48" s="15"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E49" s="15"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E50" s="15"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E51" s="15"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E52" s="15"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E53" s="15"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E54" s="15"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E55" s="15"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E56" s="15"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E57" s="15"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E58" s="15"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E59" s="15"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="363" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E363" s="14"/>
+      <c r="E363" s="11"/>
     </row>
     <row r="364" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E364" s="14"/>
+      <c r="E364" s="11"/>
     </row>
     <row r="365" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E365" s="14"/>
+      <c r="E365" s="11"/>
     </row>
     <row r="366" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E366" s="14"/>
+      <c r="E366" s="11"/>
     </row>
     <row r="367" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E367" s="14"/>
+      <c r="E367" s="11"/>
     </row>
     <row r="368" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E368" s="14"/>
+      <c r="E368" s="11"/>
     </row>
     <row r="369" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E369" s="14"/>
+      <c r="E369" s="11"/>
     </row>
     <row r="370" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E370" s="14"/>
+      <c r="E370" s="11"/>
     </row>
     <row r="371" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E371" s="14"/>
+      <c r="E371" s="11"/>
     </row>
     <row r="372" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E372" s="14"/>
+      <c r="E372" s="11"/>
     </row>
     <row r="373" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E373" s="14"/>
+      <c r="E373" s="11"/>
     </row>
     <row r="374" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E374" s="14"/>
+      <c r="E374" s="11"/>
     </row>
     <row r="375" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E375" s="14"/>
+      <c r="E375" s="11"/>
     </row>
     <row r="376" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E376" s="14"/>
+      <c r="E376" s="11"/>
     </row>
     <row r="377" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E377" s="14"/>
+      <c r="E377" s="11"/>
     </row>
     <row r="378" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E378" s="14"/>
+      <c r="E378" s="11"/>
     </row>
     <row r="379" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E379" s="14"/>
+      <c r="E379" s="11"/>
     </row>
     <row r="380" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E380" s="14"/>
+      <c r="E380" s="11"/>
     </row>
     <row r="381" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E381" s="14"/>
+      <c r="E381" s="11"/>
     </row>
     <row r="382" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E382" s="14"/>
+      <c r="E382" s="11"/>
     </row>
     <row r="383" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E383" s="14"/>
+      <c r="E383" s="11"/>
     </row>
     <row r="384" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E384" s="14"/>
+      <c r="E384" s="11"/>
     </row>
     <row r="385" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E385" s="14"/>
+      <c r="E385" s="11"/>
     </row>
     <row r="386" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E386" s="14"/>
+      <c r="E386" s="11"/>
     </row>
     <row r="387" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E387" s="14"/>
+      <c r="E387" s="11"/>
     </row>
     <row r="388" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E388" s="14"/>
+      <c r="E388" s="11"/>
     </row>
     <row r="389" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E389" s="14"/>
+      <c r="E389" s="11"/>
     </row>
     <row r="408" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E408" s="15"/>
+      <c r="E408" s="12"/>
     </row>
     <row r="409" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E409" s="15"/>
+      <c r="E409" s="12"/>
     </row>
     <row r="410" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E410" s="15"/>
+      <c r="E410" s="12"/>
     </row>
     <row r="411" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E411" s="15"/>
+      <c r="E411" s="12"/>
     </row>
     <row r="412" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E412" s="15"/>
+      <c r="E412" s="12"/>
     </row>
     <row r="413" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E413" s="15"/>
+      <c r="E413" s="12"/>
     </row>
     <row r="414" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E414" s="15"/>
+      <c r="E414" s="12"/>
     </row>
     <row r="415" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E415" s="15"/>
+      <c r="E415" s="12"/>
     </row>
     <row r="416" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E416" s="15"/>
+      <c r="E416" s="12"/>
     </row>
     <row r="417" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E417" s="15"/>
+      <c r="E417" s="12"/>
     </row>
     <row r="418" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E418" s="15"/>
+      <c r="E418" s="12"/>
     </row>
     <row r="419" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E419" s="15"/>
+      <c r="E419" s="12"/>
     </row>
     <row r="420" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E420" s="15"/>
+      <c r="E420" s="12"/>
     </row>
     <row r="421" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E421" s="15"/>
+      <c r="E421" s="12"/>
     </row>
     <row r="422" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E422" s="15"/>
+      <c r="E422" s="12"/>
     </row>
     <row r="423" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E423" s="15"/>
+      <c r="E423" s="12"/>
     </row>
     <row r="424" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E424" s="15"/>
+      <c r="E424" s="12"/>
     </row>
     <row r="425" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E425" s="15"/>
+      <c r="E425" s="12"/>
     </row>
     <row r="426" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E426" s="15"/>
+      <c r="E426" s="12"/>
     </row>
     <row r="427" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E427" s="15"/>
+      <c r="E427" s="12"/>
     </row>
     <row r="428" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E428" s="15"/>
+      <c r="E428" s="12"/>
     </row>
     <row r="429" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E429" s="15"/>
+      <c r="E429" s="12"/>
     </row>
     <row r="430" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E430" s="15"/>
+      <c r="E430" s="12"/>
     </row>
     <row r="431" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E431" s="15"/>
+      <c r="E431" s="12"/>
     </row>
     <row r="432" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E432" s="15"/>
+      <c r="E432" s="12"/>
     </row>
     <row r="433" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E433" s="15"/>
+      <c r="E433" s="12"/>
     </row>
     <row r="434" spans="5:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E434" s="15"/>
+      <c r="E434" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8957,60 +8920,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="84.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.6640625" style="3" customWidth="1"/>
-    <col min="15" max="16" width="8.83203125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -9071,37 +9033,37 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>894</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>893</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>892</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>891</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>890</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>889</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>888</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>972</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>887</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1007</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>997</v>
       </c>
     </row>
@@ -9125,48 +9087,48 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>913</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>914</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>973</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>974</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>973</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>931</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>1006</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>1187</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>1240</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>1241</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>1242</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>1241</v>
       </c>
     </row>
@@ -9179,126 +9141,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DB2321-F5C7-FB4A-8036-4D3A5B83DD24}">
   <dimension ref="A1:AB103"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="58.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="58.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="43.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.83203125" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>962</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9457,88 +9418,88 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>905</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>904</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>989</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>903</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>902</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>901</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>900</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>992</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>489</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1027</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>894</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>611</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>317</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>320</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>323</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>327</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>331</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>335</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>338</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>342</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>344</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>346</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>348</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>352</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>357</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>361</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9575,513 +9536,513 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>963</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>1005</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>990</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>961</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>975</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>961</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>2100</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>860</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>913</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>880</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>964</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>1005</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>990</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>961</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>975</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>961</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>15000</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>1004</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>913</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s">
         <v>886</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>1182</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>1183</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>1181</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>1184</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>1185</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>1186</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>1249</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" t="s">
         <v>1187</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" t="s">
         <v>1188</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>1251</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>1005</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>990</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>961</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>975</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>961</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>15000</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" t="s">
         <v>1250</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" t="s">
         <v>913</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" t="s">
         <v>886</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
     </row>
     <row r="17" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
     </row>
     <row r="18" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
     </row>
     <row r="20" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
     </row>
     <row r="21" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
     </row>
     <row r="22" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
     </row>
     <row r="23" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
     </row>
     <row r="24" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
     </row>
     <row r="25" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
     </row>
     <row r="26" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
     </row>
     <row r="27" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
     </row>
     <row r="28" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
     </row>
     <row r="29" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
     </row>
     <row r="30" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
     </row>
     <row r="31" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
     </row>
     <row r="32" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
     </row>
     <row r="33" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
     </row>
     <row r="34" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
     </row>
     <row r="35" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
     </row>
     <row r="36" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
     </row>
     <row r="37" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
     </row>
     <row r="38" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
     </row>
     <row r="39" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
     </row>
     <row r="40" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
     </row>
     <row r="41" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
     </row>
     <row r="42" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
     </row>
     <row r="43" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
     </row>
     <row r="44" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
     </row>
     <row r="45" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
     </row>
     <row r="46" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
     </row>
     <row r="47" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
     </row>
     <row r="48" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
     </row>
     <row r="51" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
     </row>
     <row r="52" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
     </row>
     <row r="53" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
     </row>
     <row r="54" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
     </row>
     <row r="55" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
     </row>
     <row r="56" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
     </row>
     <row r="57" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
     </row>
     <row r="58" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
     </row>
     <row r="59" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
     </row>
     <row r="60" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
     </row>
     <row r="61" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
     </row>
     <row r="62" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
     </row>
     <row r="63" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
     </row>
     <row r="64" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
     </row>
     <row r="66" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
     </row>
     <row r="67" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
     </row>
     <row r="68" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
     </row>
     <row r="69" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
     </row>
     <row r="70" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
     </row>
     <row r="71" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
     </row>
     <row r="72" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
     </row>
     <row r="73" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
     </row>
     <row r="74" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
     </row>
     <row r="75" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
     </row>
     <row r="76" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
     </row>
     <row r="77" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
     </row>
     <row r="78" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
     </row>
     <row r="79" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
     </row>
     <row r="80" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
     </row>
     <row r="81" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
     </row>
     <row r="82" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
     </row>
     <row r="83" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
     </row>
     <row r="84" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
     </row>
     <row r="85" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
     </row>
     <row r="86" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R86" s="10"/>
-      <c r="S86" s="10"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
     </row>
     <row r="87" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R87" s="10"/>
-      <c r="S87" s="10"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
     </row>
     <row r="88" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
     </row>
     <row r="89" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R89" s="10"/>
-      <c r="S89" s="10"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
     </row>
     <row r="90" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R90" s="10"/>
-      <c r="S90" s="10"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
     </row>
     <row r="91" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R91" s="10"/>
-      <c r="S91" s="10"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
     </row>
     <row r="92" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R92" s="10"/>
-      <c r="S92" s="10"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
     </row>
     <row r="93" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R93" s="10"/>
-      <c r="S93" s="10"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
     </row>
     <row r="94" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R94" s="10"/>
-      <c r="S94" s="10"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
     </row>
     <row r="95" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R95" s="10"/>
-      <c r="S95" s="10"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
     </row>
     <row r="96" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R96" s="10"/>
-      <c r="S96" s="10"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
     </row>
     <row r="97" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R97" s="10"/>
-      <c r="S97" s="10"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
     </row>
     <row r="98" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R98" s="10"/>
-      <c r="S98" s="10"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
     </row>
     <row r="99" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R99" s="10"/>
-      <c r="S99" s="10"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
     </row>
     <row r="100" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
     </row>
     <row r="101" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
     </row>
     <row r="102" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R102" s="10"/>
-      <c r="S102" s="10"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
     </row>
     <row r="103" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R103" s="10"/>
-      <c r="S103" s="10"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10218,40 +10179,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -10275,7 +10236,7 @@
       <c r="A6" t="s">
         <v>1291</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>956</v>
       </c>
       <c r="D6" t="s">
@@ -10310,7 +10271,7 @@
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10365,22 +10326,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -10397,7 +10358,7 @@
       <c r="A6" t="s">
         <v>882</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>847</v>
       </c>
       <c r="C6" t="s">
@@ -10406,10 +10367,10 @@
       <c r="D6">
         <v>33879890</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>854</v>
       </c>
     </row>
@@ -10469,13 +10430,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10621,7 +10582,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BW28"/>
+  <dimension ref="A1:BW8"/>
   <sheetViews>
     <sheetView topLeftCell="Y2" workbookViewId="0">
       <selection activeCell="AD3" sqref="AD3"/>
@@ -11339,229 +11300,229 @@
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>148</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>159</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>166</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>172</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>175</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>177</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>181</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>185</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>189</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>193</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>196</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>198</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>202</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>205</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>207</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>211</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>214</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>217</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>221</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>225</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" t="s">
         <v>229</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" t="s">
         <v>233</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" t="s">
         <v>237</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" t="s">
         <v>241</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>245</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" t="s">
         <v>249</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" t="s">
         <v>253</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" t="s">
         <v>257</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" t="s">
         <v>261</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" t="s">
         <v>265</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>269</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" t="s">
         <v>271</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" t="s">
         <v>273</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>275</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" t="s">
         <v>279</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" t="s">
         <v>283</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" t="s">
         <v>286</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" t="s">
         <v>288</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" t="s">
         <v>292</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" t="s">
         <v>295</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" t="s">
         <v>298</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" t="s">
         <v>300</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" t="s">
         <v>304</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" t="s">
         <v>306</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" t="s">
         <v>308</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" t="s">
         <v>310</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BG4" t="s">
         <v>314</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" t="s">
         <v>317</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BI4" t="s">
         <v>320</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="BJ4" t="s">
         <v>323</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BK4" t="s">
         <v>327</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BL4" t="s">
         <v>331</v>
       </c>
-      <c r="BM4" s="3" t="s">
+      <c r="BM4" t="s">
         <v>335</v>
       </c>
-      <c r="BN4" s="3" t="s">
+      <c r="BN4" t="s">
         <v>338</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BO4" t="s">
         <v>342</v>
       </c>
-      <c r="BP4" s="3" t="s">
+      <c r="BP4" t="s">
         <v>344</v>
       </c>
-      <c r="BQ4" s="3" t="s">
+      <c r="BQ4" t="s">
         <v>346</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BR4" t="s">
         <v>348</v>
       </c>
-      <c r="BS4" s="3" t="s">
+      <c r="BS4" t="s">
         <v>352</v>
       </c>
-      <c r="BT4" s="3" t="s">
+      <c r="BT4" t="s">
         <v>355</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BU4" t="s">
         <v>357</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="BV4" t="s">
         <v>361</v>
       </c>
-      <c r="BW4" s="3" t="s">
+      <c r="BW4" t="s">
         <v>365</v>
       </c>
     </row>
@@ -11645,10 +11606,10 @@
       <c r="BW5" s="1"/>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>850</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>865</v>
       </c>
       <c r="D6">
@@ -11657,7 +11618,7 @@
       <c r="P6" t="s">
         <v>852</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" t="s">
         <v>863</v>
       </c>
       <c r="R6" t="s">
@@ -11687,7 +11648,7 @@
       <c r="Z6" t="s">
         <v>856</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" t="s">
         <v>855</v>
       </c>
       <c r="AB6" t="s">
@@ -11696,608 +11657,115 @@
       <c r="AC6" t="s">
         <v>967</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AD6" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>851</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>866</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>9606</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" t="s">
         <v>852</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" t="s">
         <v>863</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" t="s">
         <v>852</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" t="s">
         <v>853</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" t="s">
         <v>854</v>
       </c>
       <c r="U7">
         <v>66</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" t="s">
         <v>861</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" t="s">
         <v>862</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" t="s">
         <v>861</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" t="s">
         <v>855</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" t="s">
         <v>856</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AA7" t="s">
         <v>855</v>
       </c>
       <c r="AB7" t="s">
         <v>857</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AC7" t="s">
         <v>967</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AD7" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>1246</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>1247</v>
       </c>
       <c r="D8">
         <v>9606</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" t="s">
         <v>852</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" t="s">
         <v>863</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" t="s">
         <v>852</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" t="s">
         <v>853</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" t="s">
         <v>854</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8">
         <v>66</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V8" t="s">
         <v>861</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W8" t="s">
         <v>862</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" t="s">
         <v>861</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" t="s">
         <v>855</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="Z8" t="s">
         <v>856</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AA8" t="s">
         <v>855</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AB8" t="s">
         <v>857</v>
       </c>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-    </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-    </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-    </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-    </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-    </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-    </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3"/>
-      <c r="BR15" s="3"/>
-      <c r="BS15" s="3"/>
-      <c r="BT15" s="3"/>
-      <c r="BU15" s="3"/>
-      <c r="BV15" s="3"/>
-      <c r="BW15" s="3"/>
-    </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BL16" s="3"/>
-      <c r="BM16" s="3"/>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
-      <c r="BR16" s="3"/>
-      <c r="BS16" s="3"/>
-      <c r="BT16" s="3"/>
-      <c r="BU16" s="3"/>
-      <c r="BV16" s="3"/>
-      <c r="BW16" s="3"/>
-    </row>
-    <row r="17" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-    </row>
-    <row r="18" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-    </row>
-    <row r="19" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-    </row>
-    <row r="21" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-    </row>
-    <row r="23" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-    </row>
-    <row r="24" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-    </row>
-    <row r="25" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B25" s="7"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-    </row>
-    <row r="26" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B26" s="7"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-    </row>
-    <row r="27" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B27" s="7"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-    </row>
-    <row r="28" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B28" s="7"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
-      <c r="BE28" s="3"/>
-      <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="3"/>
-      <c r="BI28" s="3"/>
-      <c r="BJ28" s="3"/>
-      <c r="BK28" s="3"/>
-      <c r="BL28" s="3"/>
-      <c r="BM28" s="3"/>
-      <c r="BN28" s="3"/>
-      <c r="BO28" s="3"/>
-      <c r="BP28" s="3"/>
-      <c r="BQ28" s="3"/>
-      <c r="BR28" s="3"/>
-      <c r="BS28" s="3"/>
-      <c r="BT28" s="3"/>
-      <c r="BU28" s="3"/>
-      <c r="BV28" s="3"/>
-      <c r="BW28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -12317,7 +11785,7 @@
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="82.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="82.83203125" style="5" customWidth="1"/>
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5" bestFit="1" customWidth="1"/>
@@ -12334,7 +11802,7 @@
       <c r="B1" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>617</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -12465,49 +11933,49 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>616</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>622</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>626</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>630</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>632</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>634</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>636</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>638</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>639</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>641</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>643</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>645</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>647</v>
       </c>
     </row>
@@ -12516,7 +11984,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -12534,7 +12002,7 @@
       <c r="A6" t="s">
         <v>869</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>873</v>
       </c>
       <c r="G6" t="s">
@@ -12543,7 +12011,7 @@
       <c r="H6" t="s">
         <v>960</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>959</v>
       </c>
     </row>
@@ -12551,7 +12019,7 @@
       <c r="A7" t="s">
         <v>870</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>871</v>
       </c>
       <c r="G7" t="s">
@@ -12560,7 +12028,7 @@
       <c r="H7" t="s">
         <v>960</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>959</v>
       </c>
     </row>
@@ -12568,7 +12036,7 @@
       <c r="A8" t="s">
         <v>965</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>872</v>
       </c>
       <c r="G8" t="s">
@@ -12577,7 +12045,7 @@
       <c r="H8" t="s">
         <v>960</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>959</v>
       </c>
     </row>
@@ -13165,184 +12633,184 @@
       </c>
     </row>
     <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>367</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>369</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>372</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>374</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>376</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>377</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>379</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>380</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>381</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>385</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>388</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>390</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>394</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>397</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>400</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>403</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>404</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>405</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>409</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>413</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>417</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>421</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>425</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>429</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>433</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>437</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>441</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>445</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>447</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" t="s">
         <v>449</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" t="s">
         <v>451</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" t="s">
         <v>455</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" t="s">
         <v>458</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>462</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" t="s">
         <v>466</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" t="s">
         <v>470</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" t="s">
         <v>474</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" t="s">
         <v>478</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" t="s">
         <v>482</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>118</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" t="s">
         <v>487</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" t="s">
         <v>317</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>320</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" t="s">
         <v>323</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" t="s">
         <v>327</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" t="s">
         <v>331</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" t="s">
         <v>335</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" t="s">
         <v>338</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" t="s">
         <v>342</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" t="s">
         <v>344</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" t="s">
         <v>346</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" t="s">
         <v>348</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" t="s">
         <v>352</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" t="s">
         <v>355</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" t="s">
         <v>357</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BG4" t="s">
         <v>361</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" t="s">
         <v>365</v>
       </c>
     </row>
@@ -13411,7 +12879,7 @@
       <c r="BH5" s="1"/>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>867</v>
       </c>
       <c r="B6" t="s">
@@ -13420,13 +12888,13 @@
       <c r="D6">
         <v>9606</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>852</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>863</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>852</v>
       </c>
       <c r="M6" t="s">
@@ -13444,101 +12912,101 @@
       <c r="T6" t="s">
         <v>967</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" t="s">
         <v>857</v>
       </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AQ6" t="s">
         <v>850</v>
       </c>
-      <c r="AR6" s="3" t="s">
+      <c r="AR6" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>868</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>868</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>9606</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" t="s">
         <v>852</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>863</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s">
         <v>852</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" t="s">
         <v>858</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" t="s">
         <v>859</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" t="s">
         <v>858</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" t="s">
         <v>857</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" t="s">
         <v>967</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" t="s">
         <v>857</v>
       </c>
-      <c r="AQ7" s="7" t="s">
+      <c r="AQ7" t="s">
         <v>851</v>
       </c>
-      <c r="AR7" s="3" t="s">
+      <c r="AR7" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="8" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>1248</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>868</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>9606</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>852</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" t="s">
         <v>863</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" t="s">
         <v>852</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" t="s">
         <v>858</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" t="s">
         <v>859</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" t="s">
         <v>858</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" t="s">
         <v>857</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" t="s">
         <v>967</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" t="s">
         <v>857</v>
       </c>
-      <c r="AQ8" s="7" t="s">
+      <c r="AQ8" t="s">
         <v>1246</v>
       </c>
-      <c r="AR8" s="3" t="s">
+      <c r="AR8" t="s">
         <v>965</v>
       </c>
     </row>
@@ -13558,21 +13026,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46" style="6" customWidth="1"/>
-    <col min="4" max="9" width="25.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="8.83203125" style="3"/>
-    <col min="14" max="16" width="25.6640625" style="3" customWidth="1"/>
-    <col min="17" max="18" width="8.83203125" style="3"/>
-    <col min="19" max="19" width="25.6640625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="27.6640625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="37.6640625" style="3" customWidth="1"/>
-    <col min="22" max="23" width="8.83203125" style="3"/>
-    <col min="24" max="25" width="25.6640625" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46" style="5" customWidth="1"/>
+    <col min="4" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" customWidth="1"/>
+    <col min="14" max="16" width="25.6640625" customWidth="1"/>
+    <col min="19" max="19" width="25.6640625" customWidth="1"/>
+    <col min="20" max="20" width="27.6640625" customWidth="1"/>
+    <col min="21" max="21" width="37.6640625" customWidth="1"/>
+    <col min="24" max="25" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13582,7 +13046,7 @@
       <c r="B1" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1044</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -13803,79 +13267,79 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1041</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1070</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1072</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1073</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1074</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1075</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1076</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1077</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1078</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1079</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1080</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1081</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>1082</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>1083</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>1084</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>1085</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>1086</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>1087</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>1088</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>1089</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>1090</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>1091</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>1092</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -13884,7 +13348,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -13909,10 +13373,10 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>1042</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -13931,24 +13395,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="3" customWidth="1"/>
-    <col min="4" max="10" width="25.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" style="3" customWidth="1"/>
-    <col min="13" max="14" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="42.6640625" style="3" customWidth="1"/>
-    <col min="17" max="24" width="25.6640625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="26.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="49.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="41.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="43.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="42.6640625" customWidth="1"/>
+    <col min="17" max="24" width="25.6640625" customWidth="1"/>
+    <col min="25" max="25" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="43.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -14232,100 +13695,100 @@
       </c>
     </row>
     <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1027</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1028</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1029</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1030</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1031</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1032</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1033</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1034</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1035</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1036</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1037</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1038</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1039</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>1040</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>367</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>1041</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>317</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>320</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>323</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>327</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>331</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>335</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>338</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>342</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>344</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>346</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>348</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>352</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>355</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>357</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>361</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>365</v>
       </c>
     </row>
@@ -14366,22 +13829,22 @@
       <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>1249</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>1249</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>9606</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" t="s">
         <v>1248</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" t="s">
         <v>1042</v>
       </c>
     </row>
